--- a/bs_int/rates/quant_assessment_template.xlsx
+++ b/bs_int/rates/quant_assessment_template.xlsx
@@ -468,11 +468,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="611113453"/>
-        <c:axId val="780409239"/>
+        <c:axId val="1875732158"/>
+        <c:axId val="1257413095"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="611113453"/>
+        <c:axId val="1875732158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,10 +524,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780409239"/>
+        <c:crossAx val="1257413095"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="780409239"/>
+        <c:axId val="1257413095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +604,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611113453"/>
+        <c:crossAx val="1875732158"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -719,11 +719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1136194939"/>
-        <c:axId val="253621699"/>
+        <c:axId val="426292832"/>
+        <c:axId val="2026648662"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1136194939"/>
+        <c:axId val="426292832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="72.0"/>
@@ -779,12 +779,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253621699"/>
+        <c:crossAx val="2026648662"/>
         <c:majorUnit val="12.0"/>
         <c:minorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253621699"/>
+        <c:axId val="2026648662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1136194939"/>
+        <c:crossAx val="426292832"/>
         <c:majorUnit val="4.0000000000000013E-4"/>
       </c:valAx>
     </c:plotArea>
@@ -2159,7 +2159,7 @@
         <v>0.9689617819</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O27" si="34">$O$15+$G$34*(J16-$J$15)</f>
+        <f t="shared" ref="O16:O27" si="34">$O$15+$G$33*(J16-$J$15)</f>
         <v>-0.03153010868</v>
       </c>
       <c r="Q16" s="23">
@@ -4857,7 +4857,7 @@
         <v>0.8983438572</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" ref="O76:O111" si="101">$O$75+$G$35*(J76-$J$75)</f>
+        <f t="shared" ref="O76:O111" si="101">$O$75+$G$36*(J76-$J$75)</f>
         <v>-0.1072023695</v>
       </c>
     </row>

--- a/bs_int/rates/quant_assessment_template.xlsx
+++ b/bs_int/rates/quant_assessment_template.xlsx
@@ -4,43 +4,19 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Treasury Example (with Math)" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Treasury Example (with Math (2)" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="XAHq2KJYrf0FCNNLuXQetSQP3XdFG85MCbo04+ND3sc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hUFFOXWFsyfPmUQYXHR06ccqnPbpBhNs3NWv3BtWhdk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="F18">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABK7uxlUo
-Kara Yokley    (2024-04-03 16:13:46)
-PV of a zero coupon bond yielding the zero rate (e.g. You pay $98.48 to get $100 at the end of a year with semi-annual compounding (1.535/2) but no interest payments.)</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgzU4EstAM60HGY7DhNRDbKUpdoRA=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Month</t>
   </si>
@@ -137,18 +113,12 @@
   <si>
     <t>Zero Rates</t>
   </si>
-  <si>
-    <t>Slope 24-60</t>
-  </si>
-  <si>
-    <t>Seek</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -156,9 +126,8 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -190,12 +159,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,11 +322,6 @@
     <xf borderId="8" fillId="0" fontId="2" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -468,11 +426,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1875732158"/>
-        <c:axId val="1257413095"/>
+        <c:axId val="578760590"/>
+        <c:axId val="786438588"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1875732158"/>
+        <c:axId val="578760590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,10 +482,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1257413095"/>
+        <c:crossAx val="786438588"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1257413095"/>
+        <c:axId val="786438588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +562,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1875732158"/>
+        <c:crossAx val="578760590"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -630,251 +588,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Continuous Monthly Zero Rates</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Treasury Example (with Math (2)'!$J$3:$J$51</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Treasury Example (with Math (2)'!$L$3:$L$51</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Discrete-Tenor Par Curve</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Treasury Example (with Math (2)'!$J$3:$J$51</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Treasury Example (with Math (2)'!$K$3:$K$51</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="426292832"/>
-        <c:axId val="2026648662"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="426292832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="72.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0" sz="1100">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" i="0" sz="1100">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Future Monthly Periods</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1000">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2026648662"/>
-        <c:majorUnit val="12.0"/>
-        <c:minorUnit val="1.0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2026648662"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" i="0" sz="1100">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" i="0" sz="1100">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Interest Rate</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1000">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="426292832"/>
-        <c:majorUnit val="4.0000000000000013E-4"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" i="1" sz="1000">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
@@ -888,36 +601,6 @@
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1687990111" name="Chart 1" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5010150" cy="2695575"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="674849717" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11850,3127 +11533,4 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="7" width="10.29"/>
-    <col customWidth="1" min="8" max="13" width="8.71"/>
-    <col customWidth="1" min="14" max="14" width="9.57"/>
-    <col customWidth="1" min="15" max="15" width="10.29"/>
-    <col customWidth="1" min="16" max="16" width="8.71"/>
-    <col customWidth="1" min="17" max="17" width="9.71"/>
-    <col customWidth="1" min="18" max="18" width="20.14"/>
-    <col customWidth="1" min="19" max="21" width="8.71"/>
-    <col customWidth="1" min="22" max="22" width="9.29"/>
-    <col customWidth="1" min="23" max="29" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="5">
-        <f>K3</f>
-        <v>0.0153</v>
-      </c>
-      <c r="S2" s="5">
-        <f>K15</f>
-        <v>0.0152</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0.0156</v>
-      </c>
-      <c r="Z2" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="AA2" s="21">
-        <f>R2/12</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AB2" s="21">
-        <f t="shared" ref="AB2:AC2" si="1">AA2</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC2" s="21">
-        <f t="shared" si="1"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.0153</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L51" si="3">(1+M3)^12 - 1</f>
-        <v>0.01535212019</v>
-      </c>
-      <c r="M3" s="7">
-        <f>R18</f>
-        <v>0.00127042871</v>
-      </c>
-      <c r="N3" s="8">
-        <f>1/(1+M3)^J3</f>
-        <v>0.9848800038</v>
-      </c>
-      <c r="O3" s="8">
-        <f>LN(N3)</f>
-        <v>-0.01523546878</v>
-      </c>
-      <c r="Z3" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="AA3" s="21">
-        <f t="shared" ref="AA3:AA13" si="4">AA2</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AB3" s="21">
-        <f t="shared" ref="AB3:AC3" si="2">AA3</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC3" s="21">
-        <f t="shared" si="2"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="J4" s="6">
-        <f t="shared" ref="J4:J51" si="6">J3+1</f>
-        <v>13</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01533714352</v>
-      </c>
-      <c r="M4" s="9">
-        <f t="shared" ref="M4:M14" si="7">(1/N4)^(1/J4) - 1</f>
-        <v>0.001269197955</v>
-      </c>
-      <c r="N4" s="8">
-        <f t="shared" ref="N4:N51" si="8">EXP(O4)</f>
-        <v>0.9836460896</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" ref="O4:O15" si="9">$O$3+$G$23*(J4-$J$3)</f>
-        <v>-0.01648911165</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="3"/>
-      <c r="Z4" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="AA4" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB4" s="21">
-        <f t="shared" ref="AB4:AC4" si="5">AA4</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC4" s="21">
-        <f t="shared" si="5"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="J5" s="6">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01532430655</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001268143023</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9824137213</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.01774275452</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="AA5" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB5" s="21">
-        <f t="shared" ref="AB5:AC5" si="10">AA5</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC5" s="21">
-        <f t="shared" si="10"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="17"/>
-      <c r="J6" s="6">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01531318131</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="7"/>
-        <v>0.00126722875</v>
-      </c>
-      <c r="N6" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9811828971</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.01899639739</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="R6" s="18">
-        <f>1.53%/2</f>
-        <v>0.00765</v>
-      </c>
-      <c r="S6" s="19">
-        <f t="shared" ref="S6:S8" si="12">1.52%/2</f>
-        <v>0.0076</v>
-      </c>
-      <c r="T6" s="43">
-        <f t="shared" ref="T6:T14" si="13">1.56%/2</f>
-        <v>0.0078</v>
-      </c>
-      <c r="U6" s="21">
-        <f t="shared" ref="U6:U7" si="14">R6/(1+$R$18)^Q6</f>
-        <v>0.007591945734</v>
-      </c>
-      <c r="V6" s="21">
-        <f t="shared" ref="V6:V7" si="15">S6/(1+$R$18)^Q6</f>
-        <v>0.007542325173</v>
-      </c>
-      <c r="W6" s="44">
-        <f t="shared" ref="W6:W7" si="16">T6/(1+$R$18)^Q6</f>
-        <v>0.007740807415</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="AA6" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB6" s="21">
-        <f t="shared" ref="AB6:AC6" si="11">AA6</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC6" s="21">
-        <f t="shared" si="11"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="17"/>
-      <c r="J7" s="6">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01530344682</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001266428761</v>
-      </c>
-      <c r="N7" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9799536148</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02025004027</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q15" si="18">Q6+6</f>
-        <v>12</v>
-      </c>
-      <c r="R7" s="18">
-        <f>1.53%/2+1</f>
-        <v>1.00765</v>
-      </c>
-      <c r="S7" s="19">
-        <f t="shared" si="12"/>
-        <v>0.0076</v>
-      </c>
-      <c r="T7" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="U7" s="21">
-        <f t="shared" si="14"/>
-        <v>0.9924143358</v>
-      </c>
-      <c r="V7" s="21">
-        <f t="shared" si="15"/>
-        <v>0.007485088029</v>
-      </c>
-      <c r="W7" s="44">
-        <f t="shared" si="16"/>
-        <v>0.00768206403</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="AA7" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB7" s="21">
-        <f t="shared" ref="AB7:AC7" si="17">AA7</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC7" s="21">
-        <f t="shared" si="17"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="J8" s="6">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01529485765</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001265722889</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9787258727</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02150368314</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="18"/>
-        <v>18</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19">
-        <f t="shared" si="12"/>
-        <v>0.0076</v>
-      </c>
-      <c r="T8" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="V8" s="21">
-        <f t="shared" ref="V8:V9" si="20">S8/(1+$S$18)^Q8</f>
-        <v>0.007429353627</v>
-      </c>
-      <c r="W8" s="44">
-        <f>T8/(1+$M$9)^Q8</f>
-        <v>0.007624497416</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>7.0</v>
-      </c>
-      <c r="AA8" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB8" s="21">
-        <f t="shared" ref="AB8:AC8" si="19">AA8</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC8" s="21">
-        <f t="shared" si="19"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="J9" s="6">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01528722288</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001265095448</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9774996687</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02275732601</v>
-      </c>
-      <c r="Q9" s="23">
-        <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="S9" s="19">
-        <f>1.52%/2+1</f>
-        <v>1.0076</v>
-      </c>
-      <c r="T9" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="V9" s="21">
-        <f t="shared" si="20"/>
-        <v>0.9775479665</v>
-      </c>
-      <c r="W9" s="44">
-        <f>T9/(1+$S$18)^Q9</f>
-        <v>0.007567362186</v>
-      </c>
-      <c r="Z9" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="AA9" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB9" s="21">
-        <f t="shared" ref="AB9:AC9" si="21">AA9</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC9" s="21">
-        <f t="shared" si="21"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="J10" s="6">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01528039183</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001264534054</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9762750011</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02401096888</v>
-      </c>
-      <c r="Q10" s="23">
-        <f t="shared" si="18"/>
-        <v>30</v>
-      </c>
-      <c r="T10" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="W10" s="44">
-        <f t="shared" ref="W10:W15" si="23">T10/(1+$T$18)^Q10</f>
-        <v>0.007502785544</v>
-      </c>
-      <c r="Z10" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="AA10" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB10" s="21">
-        <f t="shared" ref="AB10:AC10" si="22">AA10</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC10" s="21">
-        <f t="shared" si="22"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="J11" s="6">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01527424392</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="7"/>
-        <v>0.0012640288</v>
-      </c>
-      <c r="N11" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9750518677</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02526461175</v>
-      </c>
-      <c r="Q11" s="23">
-        <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="T11" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="W11" s="44">
-        <f t="shared" si="23"/>
-        <v>0.007444715726</v>
-      </c>
-      <c r="Z11" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="AA11" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB11" s="21">
-        <f t="shared" ref="AB11:AC11" si="24">AA11</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC11" s="21">
-        <f t="shared" si="24"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="J12" s="6">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01526868156</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001263571665</v>
-      </c>
-      <c r="N12" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9738302668</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02651825463</v>
-      </c>
-      <c r="Q12" s="23">
-        <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
-      <c r="T12" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="W12" s="44">
-        <f t="shared" si="23"/>
-        <v>0.007387095355</v>
-      </c>
-      <c r="Z12" s="21">
-        <v>11.0</v>
-      </c>
-      <c r="AA12" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB12" s="21">
-        <f t="shared" ref="AB12:AC12" si="25">AA12</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC12" s="21">
-        <f t="shared" si="25"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="J13" s="6">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01526362489</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001263156088</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9726101963</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.0277718975</v>
-      </c>
-      <c r="Q13" s="23">
-        <f t="shared" si="18"/>
-        <v>48</v>
-      </c>
-      <c r="T13" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="W13" s="44">
-        <f t="shared" si="23"/>
-        <v>0.007329920952</v>
-      </c>
-      <c r="Z13" s="21">
-        <v>12.0</v>
-      </c>
-      <c r="AA13" s="21">
-        <f t="shared" si="4"/>
-        <v>0.001275</v>
-      </c>
-      <c r="AB13" s="21">
-        <f t="shared" ref="AB13:AC13" si="26">AA13</f>
-        <v>0.001275</v>
-      </c>
-      <c r="AC13" s="21">
-        <f t="shared" si="26"/>
-        <v>0.001275</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="J14" s="6">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01525900796</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="7"/>
-        <v>0.001262776648</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9713916544</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.02902554037</v>
-      </c>
-      <c r="Q14" s="23">
-        <f t="shared" si="18"/>
-        <v>54</v>
-      </c>
-      <c r="T14" s="43">
-        <f t="shared" si="13"/>
-        <v>0.0078</v>
-      </c>
-      <c r="W14" s="44">
-        <f t="shared" si="23"/>
-        <v>0.007273189066</v>
-      </c>
-      <c r="Z14" s="21">
-        <v>13.0</v>
-      </c>
-      <c r="AB14" s="21">
-        <f t="shared" ref="AB14:AB25" si="27">(0.0304-0.0153)/12</f>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC14" s="21">
-        <f t="shared" ref="AC14:AC25" si="28">AB14</f>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="J15" s="6">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.0152</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01525477579</v>
-      </c>
-      <c r="M15" s="7">
-        <f>S18</f>
-        <v>0.001262428828</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9701746392</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="9"/>
-        <v>-0.03027918324</v>
-      </c>
-      <c r="Q15" s="23">
-        <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-      <c r="T15" s="43">
-        <f>1.56%/2+1</f>
-        <v>1.0078</v>
-      </c>
-      <c r="W15" s="44">
-        <f t="shared" si="23"/>
-        <v>0.932460008</v>
-      </c>
-      <c r="Z15" s="21">
-        <v>14.0</v>
-      </c>
-      <c r="AB15" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC15" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="J16" s="6">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01528186036</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" ref="M16:M51" si="29">(1/N16)^(1/J16) - 1</f>
-        <v>0.001264654742</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9688975565</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" ref="O16:O51" si="30">$O$15+$G$24*(J16-$J$15)</f>
-        <v>-0.0315963935</v>
-      </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="Z16" s="21">
-        <v>15.0</v>
-      </c>
-      <c r="AB16" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC16" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="25"/>
-      <c r="J17" s="6">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01530686215</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001266709436</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9676221549</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.03291360376</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z17" s="21">
-        <v>16.0</v>
-      </c>
-      <c r="AB17" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC17" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="3"/>
-        <v>0.0153300125</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001268611935</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9663484321</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.03423081402</v>
-      </c>
-      <c r="Q18" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="9">
-        <v>0.0012704287096903307</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0.0012624288284146343</v>
-      </c>
-      <c r="T18" s="9">
-        <v>0.0012958180567602825</v>
-      </c>
-      <c r="U18" s="38">
-        <f>SUM(U6:U7)-1</f>
-        <v>0.000006281571436</v>
-      </c>
-      <c r="V18" s="39">
-        <f>SUM(V6:V9)-1</f>
-        <v>0.000004733319702</v>
-      </c>
-      <c r="W18" s="40">
-        <f>SUM(W6:W15)-1</f>
-        <v>0.00001244565485</v>
-      </c>
-      <c r="Z18" s="21">
-        <v>17.0</v>
-      </c>
-      <c r="AB18" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC18" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.0153</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:D21" si="32">(1+E19)^12 - 1</f>
-        <v>0.01535212019</v>
-      </c>
-      <c r="E19" s="7">
-        <f>R18</f>
-        <v>0.00127042871</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" ref="F19:F21" si="33">1/(1+E19)^B19</f>
-        <v>0.9848800038</v>
-      </c>
-      <c r="G19" s="19">
-        <f t="shared" ref="G19:G21" si="34">LN(F19)</f>
-        <v>-0.01523546878</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01535150973</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001270378544</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="8"/>
-        <v>0.965076386</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.03554802428</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" ref="R19:T19" si="31">R18*12</f>
-        <v>0.01524514452</v>
-      </c>
-      <c r="S19" s="5">
-        <f t="shared" si="31"/>
-        <v>0.01514914594</v>
-      </c>
-      <c r="T19" s="5">
-        <f t="shared" si="31"/>
-        <v>0.01554981668</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>18.0</v>
-      </c>
-      <c r="AB19" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC19" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="6">
-        <v>24.0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.0152</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" si="32"/>
-        <v>0.01525477579</v>
-      </c>
-      <c r="E20" s="7">
-        <f>S18</f>
-        <v>0.001262428828</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="33"/>
-        <v>0.9701746392</v>
-      </c>
-      <c r="G20" s="19">
-        <f t="shared" si="34"/>
-        <v>-0.03027918324</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.0153715248</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="29"/>
-        <v>0.00127202332</v>
-      </c>
-      <c r="N20" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9638060144</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.03686523454</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>19.0</v>
-      </c>
-      <c r="AB20" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC20" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="6">
-        <v>60.0</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.0156</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="32"/>
-        <v>0.0156611203</v>
-      </c>
-      <c r="E21" s="7">
-        <f>T18</f>
-        <v>0.001295818057</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="33"/>
-        <v>0.9252431117</v>
-      </c>
-      <c r="G21" s="19">
-        <f t="shared" si="34"/>
-        <v>-0.07769875255</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01539020589</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001273558447</v>
-      </c>
-      <c r="N21" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9625373149</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.03818244479</v>
-      </c>
-      <c r="R21" s="21">
-        <f>(1+(R2/2))^2</f>
-        <v>1.015358523</v>
-      </c>
-      <c r="S21" s="21">
-        <f>(1+(S2/2))^(2*2)</f>
-        <v>1.030748319</v>
-      </c>
-      <c r="T21" s="21">
-        <f>(1+(T2/2))^(5*2)</f>
-        <v>1.080795531</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>20.0</v>
-      </c>
-      <c r="AB21" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC21" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="J22" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01540768206</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001274994536</v>
-      </c>
-      <c r="N22" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9612702856</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.03949965505</v>
-      </c>
-      <c r="R22" s="21">
-        <f t="shared" ref="R22:T22" si="35">1/R21</f>
-        <v>0.9848737937</v>
-      </c>
-      <c r="S22" s="21">
-        <f t="shared" si="35"/>
-        <v>0.9701689358</v>
-      </c>
-      <c r="T22" s="21">
-        <f t="shared" si="35"/>
-        <v>0.9252443884</v>
-      </c>
-      <c r="Z22" s="21">
-        <v>21.0</v>
-      </c>
-      <c r="AB22" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC22" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="E23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" ref="G23:G24" si="37">(G20-G19)/(B20-B19)</f>
-        <v>-0.001253642872</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="L23" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01542406624</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001276340872</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9600049241</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.04081686531</v>
-      </c>
-      <c r="R23" s="21">
-        <f t="shared" ref="R23:T23" si="36">R2/12</f>
-        <v>0.001275</v>
-      </c>
-      <c r="S23" s="21">
-        <f t="shared" si="36"/>
-        <v>0.001266666667</v>
-      </c>
-      <c r="T23" s="44">
-        <f t="shared" si="36"/>
-        <v>0.0013</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>22.0</v>
-      </c>
-      <c r="AB23" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC23" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="E24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="37"/>
-        <v>-0.001317210258</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01543945768</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001277605612</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9587412282</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.04213407557</v>
-      </c>
-      <c r="Z24" s="21">
-        <v>23.0</v>
-      </c>
-      <c r="AB24" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC24" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="J25" s="6">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="L25" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01545394396</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001278795958</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9574791958</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.04345128583</v>
-      </c>
-      <c r="R25" s="25">
-        <f>R6*(EXP(-R2*$Q6/12))+R7*(EXP(-R2*$Q7/12))</f>
-        <v>0.999941997</v>
-      </c>
-      <c r="S25" s="25">
-        <f t="shared" ref="S25:T25" si="38">S6*(EXP(-S2*$Q6/12))+S7*(EXP(-S2*$Q7/12))+S8*(EXP(-S2*$Q8/12))+S9*(EXP(-S2*$Q9/12))+S10*(EXP(-S2*$Q10/12))+S11*(EXP(-S2*$Q11/12))+S12*(EXP(-S2*$Q12/12))+S13*(EXP(-S2*$Q13/12))+S14*(EXP(-S2*$Q14/12))+S15*(EXP(-S2*$Q15/12))</f>
-        <v>0.9998863624</v>
-      </c>
-      <c r="T25" s="25">
-        <f t="shared" si="38"/>
-        <v>0.9997077417</v>
-      </c>
-      <c r="Z25" s="21">
-        <v>24.0</v>
-      </c>
-      <c r="AB25" s="21">
-        <f t="shared" si="27"/>
-        <v>0.001258333333</v>
-      </c>
-      <c r="AC25" s="21">
-        <f t="shared" si="28"/>
-        <v>0.001258333333</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="J26" s="6">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01546760263</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001279918285</v>
-      </c>
-      <c r="N26" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9562188246</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.04476849609</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="J27" s="6">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01548050267</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001280978262</v>
-      </c>
-      <c r="N27" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9549601125</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.04608570635</v>
-      </c>
-      <c r="R27" s="21">
-        <f t="shared" ref="R27:T27" si="39">R28/12</f>
-        <v>0.00127042871</v>
-      </c>
-      <c r="S27" s="21">
-        <f t="shared" si="39"/>
-        <v>0.001262428828</v>
-      </c>
-      <c r="T27" s="21">
-        <f t="shared" si="39"/>
-        <v>0.001295818057</v>
-      </c>
-      <c r="Z27" s="21">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="J28" s="6">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01549270555</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001281980944</v>
-      </c>
-      <c r="N28" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9537030574</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.0474029166</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" s="21">
-        <v>0.015245144516283969</v>
-      </c>
-      <c r="S28" s="21">
-        <v>0.015149145940975613</v>
-      </c>
-      <c r="T28" s="21">
-        <v>0.01554981668112339</v>
-      </c>
-      <c r="Z28" s="21">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="J29" s="6">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01550426631</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001282930854</v>
-      </c>
-      <c r="N29" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9524476569</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.04872012686</v>
-      </c>
-      <c r="R29" s="21">
-        <f>R6*(EXP(-R28*$Q6/12))+R7*(EXP(-R28*$Q7/12))</f>
-        <v>0.9999966425</v>
-      </c>
-      <c r="S29" s="21">
-        <f>S6*(EXP(-S28*$Q6/12))+S7*(EXP(-S28*$Q7/12))+S8*(EXP(-S28*$Q8/12))+S9*(EXP(-S28*$Q9/12))</f>
-        <v>0.9999869191</v>
-      </c>
-      <c r="T29" s="21">
-        <f>T6*(EXP(-T28*$Q6/12))+T7*(EXP(-T28*$Q7/12))+T8*(EXP(-T28*$Q8/12))+T9*(EXP(-T28*$Q9/12))+T10*(EXP(-T28*$Q10/12))+T11*(EXP(-T28*$Q11/12))+T12*(EXP(-T28*$Q12/12))+T13*(EXP(-T28*$Q13/12))+T14*(EXP(-T28*$Q14/12))+T15*(EXP(-T28*$Q15/12))</f>
-        <v>0.9999500548</v>
-      </c>
-      <c r="Z29" s="21">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="J30" s="6">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01551523433</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001283832052</v>
-      </c>
-      <c r="N30" s="8">
-        <f t="shared" si="8"/>
-        <v>0.951193909</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05003733712</v>
-      </c>
-      <c r="Z30" s="21">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="J31" s="6">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="L31" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01552565406</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="29"/>
-        <v>0.00128468819</v>
-      </c>
-      <c r="N31" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9499418114</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05135454738</v>
-      </c>
-      <c r="Z31" s="21">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="J32" s="6">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01553556561</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001285502567</v>
-      </c>
-      <c r="N32" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9486913621</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05267175764</v>
-      </c>
-      <c r="R32" s="21">
-        <f t="shared" ref="R32:T32" si="40">R33/12</f>
-        <v>0.00127042871</v>
-      </c>
-      <c r="S32" s="21">
-        <f t="shared" si="40"/>
-        <v>0.001262428828</v>
-      </c>
-      <c r="T32" s="21">
-        <f t="shared" si="40"/>
-        <v>0.001295818057</v>
-      </c>
-      <c r="Z32" s="21">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="J33" s="6">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="L33" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01554500528</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001286278164</v>
-      </c>
-      <c r="N33" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9474425587</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.0539889679</v>
-      </c>
-      <c r="Q33" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" s="21">
-        <f t="shared" ref="R33:T33" si="41">R18*12</f>
-        <v>0.01524514452</v>
-      </c>
-      <c r="S33" s="21">
-        <f t="shared" si="41"/>
-        <v>0.01514914594</v>
-      </c>
-      <c r="T33" s="21">
-        <f t="shared" si="41"/>
-        <v>0.01554981668</v>
-      </c>
-      <c r="Z33" s="21">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="J34" s="6">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="L34" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01555400597</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001287017687</v>
-      </c>
-      <c r="N34" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9461953992</v>
-      </c>
-      <c r="O34" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05530617815</v>
-      </c>
-      <c r="R34" s="21">
-        <f>R6*(EXP(-R33*$Q6/12))+R7*(EXP(-R33*$Q7/12))</f>
-        <v>0.9999966425</v>
-      </c>
-      <c r="S34" s="21">
-        <f>S6*(EXP(-R33*$Q6/12))+S7*(EXP(-R33*$Q7/12))+S8*(EXP(-S33*$Q8/12))+S9*(EXP(-S33*$Q9/12))</f>
-        <v>0.9999858385</v>
-      </c>
-      <c r="T34" s="21">
-        <f>T6*(EXP(-R33*$Q6/12))+T7*(EXP(-R33*$Q7/12))+T8*(EXP(-S33*$Q8/12))+T9*(EXP(-S33*$Q9/12))+T10*(EXP(-T33*$Q10/12))+T11*(EXP(-T33*$Q11/12))+T12*(EXP(-T33*$Q12/12))+T13*(EXP(-T33*$Q13/12))+T14*(EXP(-T33*$Q14/12))+T15*(EXP(-T33*$Q15/12))</f>
-        <v>0.9999642167</v>
-      </c>
-      <c r="Z34" s="21">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="J35" s="6">
-        <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="L35" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01556259761</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001287723596</v>
-      </c>
-      <c r="N35" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9449498814</v>
-      </c>
-      <c r="O35" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05662338841</v>
-      </c>
-      <c r="Z35" s="21">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="J36" s="6">
-        <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="L36" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01557080747</v>
-      </c>
-      <c r="M36" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001288398132</v>
-      </c>
-      <c r="N36" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9437060032</v>
-      </c>
-      <c r="O36" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05794059867</v>
-      </c>
-      <c r="Z36" s="21">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="J37" s="6">
-        <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="L37" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01557866044</v>
-      </c>
-      <c r="M37" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001289043341</v>
-      </c>
-      <c r="N37" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9424637623</v>
-      </c>
-      <c r="O37" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.05925780893</v>
-      </c>
-      <c r="R37" s="21">
-        <f t="shared" ref="R37:T37" si="42">R38/12</f>
-        <v>0.00127042871</v>
-      </c>
-      <c r="S37" s="21">
-        <f t="shared" si="42"/>
-        <v>0.001262428828</v>
-      </c>
-      <c r="T37" s="21">
-        <f t="shared" si="42"/>
-        <v>0.001295818057</v>
-      </c>
-      <c r="Z37" s="21">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="J38" s="6">
-        <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="L38" s="5">
-        <f t="shared" si="3"/>
-        <v>0.0155861793</v>
-      </c>
-      <c r="M38" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001289661094</v>
-      </c>
-      <c r="N38" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9412231566</v>
-      </c>
-      <c r="O38" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.06057501919</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R38" s="21">
-        <v>0.015245144516283969</v>
-      </c>
-      <c r="S38" s="21">
-        <v>0.015149145940975613</v>
-      </c>
-      <c r="T38" s="21">
-        <v>0.01554981668112339</v>
-      </c>
-      <c r="Z38" s="21">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="J39" s="6">
-        <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="L39" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01559338492</v>
-      </c>
-      <c r="M39" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001290253108</v>
-      </c>
-      <c r="N39" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9399841839</v>
-      </c>
-      <c r="O39" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.06189222945</v>
-      </c>
-      <c r="R39" s="21">
-        <f>R6/(1+R38)^($Q6/12)+R7/(1+R38)^($Q7/12)</f>
-        <v>1.000111252</v>
-      </c>
-      <c r="S39" s="21">
-        <f>S6/(1+S38)^($Q6/12)+S7/(1+S38)^($Q7/12)+S8/(1+S38)^($Q8/12)+S9/(1+S38)^($Q9/12)</f>
-        <v>1.000211589</v>
-      </c>
-      <c r="T39" s="21">
-        <f>T6/(1+T38)^($Q6/12)+T7/(1+T38)^($Q7/12)+T8/(1+T38)^($Q8/12)+T9/(1+T38)^($Q9/12)+T10/(1+T38)^($Q10/12)+T11/(1+T38)^($Q11/12)+T12/(1+T38)^($Q12/12)+T13/(1+T38)^($Q13/12)+T14/(1+T38)^($Q14/12)+T15/(1+T38)^($Q15/12)</f>
-        <v>1.00052808</v>
-      </c>
-      <c r="Z39" s="21">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="J40" s="6">
-        <f t="shared" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="L40" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01560029649</v>
-      </c>
-      <c r="M40" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001290820959</v>
-      </c>
-      <c r="N40" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9387468422</v>
-      </c>
-      <c r="O40" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.0632094397</v>
-      </c>
-      <c r="Z40" s="21">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="J41" s="6">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="L41" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01560693164</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001291366095</v>
-      </c>
-      <c r="N41" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9375111293</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.06452664996</v>
-      </c>
-      <c r="Z41" s="21">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="J42" s="6">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="L42" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01561330663</v>
-      </c>
-      <c r="M42" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001291889854</v>
-      </c>
-      <c r="N42" s="8">
-        <f t="shared" si="8"/>
-        <v>0.936277043</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.06584386022</v>
-      </c>
-      <c r="R42" s="21">
-        <f t="shared" ref="R42:T42" si="43">R43/12</f>
-        <v>0.00127042871</v>
-      </c>
-      <c r="S42" s="19">
-        <f t="shared" si="43"/>
-        <v>0.001262428828</v>
-      </c>
-      <c r="T42" s="21">
-        <f t="shared" si="43"/>
-        <v>0.001295818057</v>
-      </c>
-      <c r="Z42" s="21">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="J43" s="6">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="L43" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01561943646</v>
-      </c>
-      <c r="M43" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001292393469</v>
-      </c>
-      <c r="N43" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9350445811</v>
-      </c>
-      <c r="O43" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.06716107048</v>
-      </c>
-      <c r="Q43" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R43" s="21">
-        <v>0.015245144516283969</v>
-      </c>
-      <c r="S43" s="21">
-        <v>0.015149145940975613</v>
-      </c>
-      <c r="T43" s="21">
-        <v>0.01554981668112339</v>
-      </c>
-      <c r="Z43" s="21">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="J44" s="6">
-        <f t="shared" si="6"/>
-        <v>53</v>
-      </c>
-      <c r="L44" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01562533501</v>
-      </c>
-      <c r="M44" s="9">
-        <f t="shared" si="29"/>
-        <v>0.00129287808</v>
-      </c>
-      <c r="N44" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9338137416</v>
-      </c>
-      <c r="O44" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.06847828074</v>
-      </c>
-      <c r="R44" s="21">
-        <f>R6/(1+R43)^($Q6/12)+R7/(1+R43)^($Q7/12)</f>
-        <v>1.000111252</v>
-      </c>
-      <c r="S44" s="21">
-        <f>S6/(1+R43)^($Q6/12)+S7/(1+R43)^($Q7/12)+S8/(1+S43)^($Q8/12)+S9/(1+S43)^($Q9/12)</f>
-        <v>1.000210524</v>
-      </c>
-      <c r="T44" s="21">
-        <f>T6/(1+R43)^($Q6/12)+T7/(1+R43)^($Q7/12)+T8/(1+S43)^($Q8/12)+T9/(1+S43)^($Q9/12)+T10/(1+T43)^($Q10/12)+T11/(1+T43)^($Q11/12)+T12/(1+T43)^($Q12/12)+T13/(1+T43)^($Q13/12)+T14/(1+T43)^($Q14/12)+T15/(1+T43)^($Q15/12)</f>
-        <v>1.00054203</v>
-      </c>
-      <c r="Z44" s="21">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="J45" s="6">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="L45" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01563101513</v>
-      </c>
-      <c r="M45" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001293344742</v>
-      </c>
-      <c r="N45" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9325845223</v>
-      </c>
-      <c r="O45" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.069795491</v>
-      </c>
-      <c r="Z45" s="21">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="J46" s="6">
-        <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="L46" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01563648873</v>
-      </c>
-      <c r="M46" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001293794435</v>
-      </c>
-      <c r="N46" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9313569211</v>
-      </c>
-      <c r="O46" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.07111270126</v>
-      </c>
-      <c r="Z46" s="21">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="J47" s="6">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="L47" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01564176688</v>
-      </c>
-      <c r="M47" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001294228068</v>
-      </c>
-      <c r="N47" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9301309358</v>
-      </c>
-      <c r="O47" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.07242991151</v>
-      </c>
-      <c r="R47" s="9">
-        <f t="shared" ref="R47:T47" si="44">R48/12</f>
-        <v>0.001265844809</v>
-      </c>
-      <c r="S47" s="9">
-        <f t="shared" si="44"/>
-        <v>0.001258550459</v>
-      </c>
-      <c r="T47" s="9">
-        <f t="shared" si="44"/>
-        <v>0.001300018121</v>
-      </c>
-      <c r="Z47" s="21">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="J48" s="6">
-        <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="L48" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01564685985</v>
-      </c>
-      <c r="M48" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001294646486</v>
-      </c>
-      <c r="N48" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9289065644</v>
-      </c>
-      <c r="O48" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.07374712177</v>
-      </c>
-      <c r="Q48" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="R48" s="21">
-        <v>0.015190137702661673</v>
-      </c>
-      <c r="S48" s="21">
-        <v>0.015102605509066978</v>
-      </c>
-      <c r="T48" s="21">
-        <v>0.015600217451186423</v>
-      </c>
-      <c r="Z48" s="21">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="J49" s="6">
-        <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="L49" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01565177722</v>
-      </c>
-      <c r="M49" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001295050476</v>
-      </c>
-      <c r="N49" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9276838046</v>
-      </c>
-      <c r="O49" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.07506433203</v>
-      </c>
-      <c r="R49" s="21">
-        <f>R6/(1+R48/2)+R7/(1+R48/2)^2</f>
-        <v>1.000108623</v>
-      </c>
-      <c r="S49" s="21">
-        <f>S6/(1+R48/2)+S7/(1+R48/2)^2+S8/(1+S48/2)^3+S9/(1+S48/2)^4</f>
-        <v>1.000190189</v>
-      </c>
-      <c r="T49" s="21">
-        <f>T6/(1+R48/2)+T7/(1+R48/2)^2+T8/(1+S48/2)^3+T9/(1+S48/2)^4+T10/(1+T48/2)^5+T11/(1+T48/2)^6+T12/(1+T48/2)^7+T13/(1+T48/2)^8+T14/(1+T48/2)^9+T15/(1+T48/2)^10</f>
-        <v>1.000016777</v>
-      </c>
-      <c r="Z49" s="21">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="J50" s="6">
-        <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="L50" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01565652793</v>
-      </c>
-      <c r="M50" s="9">
-        <f t="shared" si="29"/>
-        <v>0.001295440771</v>
-      </c>
-      <c r="N50" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9264626544</v>
-      </c>
-      <c r="O50" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.07638154229</v>
-      </c>
-      <c r="Z50" s="21">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="J51" s="6">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="K51" s="5">
-        <v>0.0156</v>
-      </c>
-      <c r="L51" s="5">
-        <f t="shared" si="3"/>
-        <v>0.0156611203</v>
-      </c>
-      <c r="M51" s="7">
-        <f t="shared" si="29"/>
-        <v>0.001295818057</v>
-      </c>
-      <c r="N51" s="8">
-        <f t="shared" si="8"/>
-        <v>0.9252431117</v>
-      </c>
-      <c r="O51" s="8">
-        <f t="shared" si="30"/>
-        <v>-0.07769875255</v>
-      </c>
-      <c r="Z51" s="21">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="Z52" s="21">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="Z53" s="21">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="Z54" s="21">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="Z55" s="21">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="Z56" s="21">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="Z57" s="21">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="Z58" s="21">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="Z59" s="21">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="Z60" s="21">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="Z61" s="21">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="Q18"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-</worksheet>
 </file>
--- a/bs_int/rates/quant_assessment_template.xlsx
+++ b/bs_int/rates/quant_assessment_template.xlsx
@@ -426,11 +426,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="578760590"/>
-        <c:axId val="786438588"/>
+        <c:axId val="2145509291"/>
+        <c:axId val="624031800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="578760590"/>
+        <c:axId val="2145509291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,10 +482,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="786438588"/>
+        <c:crossAx val="624031800"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="786438588"/>
+        <c:axId val="624031800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +562,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578760590"/>
+        <c:crossAx val="2145509291"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1156,7 +1156,7 @@
         <v>-0.02024318864</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q65" si="11">Q6+6</f>
+        <f t="shared" ref="Q7:Q65" si="10">Q6+6</f>
         <v>12</v>
       </c>
       <c r="R7" s="18">
@@ -1164,7 +1164,7 @@
         <v>1.00765</v>
       </c>
       <c r="S7" s="19">
-        <f t="shared" ref="S7:T7" si="8">S$2/2</f>
+        <f t="shared" ref="S7:Y7" si="8">S$2/2</f>
         <v>0.0076</v>
       </c>
       <c r="T7" s="19">
@@ -1172,23 +1172,23 @@
         <v>0.0076</v>
       </c>
       <c r="U7" s="19">
-        <f t="shared" ref="U7:U14" si="13">1.56%/2</f>
+        <f t="shared" si="8"/>
         <v>0.0078</v>
       </c>
       <c r="V7" s="19">
-        <f t="shared" ref="V7:Y7" si="9">V$2/2</f>
+        <f t="shared" si="8"/>
         <v>0.0078</v>
       </c>
       <c r="W7" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.0078</v>
       </c>
       <c r="X7" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.0078</v>
       </c>
       <c r="Y7" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.0078</v>
       </c>
       <c r="Z7" s="20">
@@ -1196,31 +1196,31 @@
         <v>0.9924194349</v>
       </c>
       <c r="AA7" s="21">
-        <f t="shared" ref="AA7:AG7" si="10">S7/(1+S$68)^$Q7</f>
+        <f t="shared" ref="AA7:AG7" si="9">S7/(1+S$68)^$Q7</f>
         <v>0.007485844185</v>
       </c>
       <c r="AB7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.007485844185</v>
       </c>
       <c r="AC7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.007682840085</v>
       </c>
       <c r="AD7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.007682840085</v>
       </c>
       <c r="AE7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.007682840085</v>
       </c>
       <c r="AF7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.007682840085</v>
       </c>
       <c r="AG7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.007682840085</v>
       </c>
       <c r="AH7" s="21"/>
@@ -1251,65 +1251,65 @@
         <v>-0.0214964031</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="R8" s="18"/>
       <c r="S8" s="19">
-        <f t="shared" ref="S8:T8" si="12">S$2/2</f>
+        <f t="shared" ref="S8:Y8" si="11">S$2/2</f>
         <v>0.0076</v>
       </c>
       <c r="T8" s="19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.0076</v>
       </c>
       <c r="U8" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.0078</v>
       </c>
       <c r="V8" s="19">
-        <f t="shared" ref="V8:Y8" si="14">V$2/2</f>
+        <f t="shared" si="11"/>
         <v>0.0078</v>
       </c>
       <c r="W8" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.0078</v>
       </c>
       <c r="X8" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.0078</v>
       </c>
       <c r="Y8" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.0078</v>
       </c>
       <c r="Z8" s="22"/>
       <c r="AA8" s="21">
-        <f t="shared" ref="AA8:AG8" si="15">S8/(1+S$68)^$Q8</f>
+        <f t="shared" ref="AA8:AG8" si="12">S8/(1+S$68)^$Q8</f>
         <v>0.007429410901</v>
       </c>
       <c r="AB8" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.007429410901</v>
       </c>
       <c r="AC8" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.007624921714</v>
       </c>
       <c r="AD8" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.007624921714</v>
       </c>
       <c r="AE8" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.007624921714</v>
       </c>
       <c r="AF8" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.007624921714</v>
       </c>
       <c r="AG8" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.007624921714</v>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         <v>-0.02274961756</v>
       </c>
       <c r="Q9" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="S9" s="19">
@@ -1344,7 +1344,7 @@
         <v>1.0076</v>
       </c>
       <c r="T9" s="19">
-        <f t="shared" ref="T9:T10" si="18">T$2/2</f>
+        <f t="shared" ref="T9:Y9" si="13">T$2/2</f>
         <v>0.0076</v>
       </c>
       <c r="U9" s="19">
@@ -1352,19 +1352,19 @@
         <v>0.0078</v>
       </c>
       <c r="V9" s="19">
-        <f t="shared" ref="V9:Y9" si="16">V$2/2</f>
+        <f t="shared" si="13"/>
         <v>0.0078</v>
       </c>
       <c r="W9" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.0078</v>
       </c>
       <c r="X9" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.0078</v>
       </c>
       <c r="Y9" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0.0078</v>
       </c>
       <c r="Z9" s="22"/>
@@ -1373,27 +1373,27 @@
         <v>0.9775580147</v>
       </c>
       <c r="AB9" s="21">
-        <f t="shared" ref="AB9:AG9" si="17">T9/(1+T$68)^$Q9</f>
+        <f t="shared" ref="AB9:AG9" si="14">T9/(1+T$68)^$Q9</f>
         <v>0.007373403048</v>
       </c>
       <c r="AC9" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.007567439971</v>
       </c>
       <c r="AD9" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.007567439971</v>
       </c>
       <c r="AE9" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.007567439971</v>
       </c>
       <c r="AF9" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.007567439971</v>
       </c>
       <c r="AG9" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.007567439971</v>
       </c>
     </row>
@@ -1420,56 +1420,56 @@
         <v>-0.02400283202</v>
       </c>
       <c r="Q10" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="T10" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="T10:Y10" si="15">T$2/2</f>
         <v>0.0076</v>
       </c>
       <c r="U10" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.0078</v>
       </c>
       <c r="V10" s="19">
-        <f t="shared" ref="V10:Y10" si="19">V$2/2</f>
+        <f t="shared" si="15"/>
         <v>0.0078</v>
       </c>
       <c r="W10" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.0078</v>
       </c>
       <c r="X10" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.0078</v>
       </c>
       <c r="Y10" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0.0078</v>
       </c>
       <c r="Z10" s="22"/>
       <c r="AB10" s="21">
-        <f t="shared" ref="AB10:AG10" si="20">T10/(1+T$68)^$Q10</f>
+        <f t="shared" ref="AB10:AG10" si="16">T10/(1+T$68)^$Q10</f>
         <v>0.00731781742</v>
       </c>
       <c r="AC10" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.007510391563</v>
       </c>
       <c r="AD10" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.007510391563</v>
       </c>
       <c r="AE10" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.007510391563</v>
       </c>
       <c r="AF10" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.007510391563</v>
       </c>
       <c r="AG10" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0.007510391563</v>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         <v>-0.02525604649</v>
       </c>
       <c r="Q11" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="T11" s="24">
@@ -1504,48 +1504,48 @@
         <v>1.0076</v>
       </c>
       <c r="U11" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U11:Y11" si="17">U$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="V11" s="19">
-        <f t="shared" ref="V11:Y11" si="21">V$2/2</f>
+        <f t="shared" si="17"/>
         <v>0.0078</v>
       </c>
       <c r="W11" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0.0078</v>
       </c>
       <c r="X11" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0.0078</v>
       </c>
       <c r="Y11" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0.0078</v>
       </c>
       <c r="Z11" s="22"/>
       <c r="AB11" s="21">
-        <f t="shared" ref="AB11:AG11" si="22">T11/(1+T$68)^$Q11</f>
+        <f t="shared" ref="AB11:AG11" si="18">T11/(1+T$68)^$Q11</f>
         <v>0.9628746026</v>
       </c>
       <c r="AC11" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0.007453773224</v>
       </c>
       <c r="AD11" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0.007453773224</v>
       </c>
       <c r="AE11" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0.007453773224</v>
       </c>
       <c r="AF11" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0.007453773224</v>
       </c>
       <c r="AG11" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0.007453773224</v>
       </c>
     </row>
@@ -1572,48 +1572,48 @@
         <v>-0.02650926095</v>
       </c>
       <c r="Q12" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="U12" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U12:Y12" si="19">U$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="V12" s="19">
-        <f t="shared" ref="V12:Y12" si="23">V$2/2</f>
+        <f t="shared" si="19"/>
         <v>0.0078</v>
       </c>
       <c r="W12" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.0078</v>
       </c>
       <c r="X12" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.0078</v>
       </c>
       <c r="Y12" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.0078</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AC12" s="21">
-        <f t="shared" ref="AC12:AG12" si="24">U12/(1+U$68)^$Q12</f>
+        <f t="shared" ref="AC12:AG12" si="20">U12/(1+U$68)^$Q12</f>
         <v>0.007397581712</v>
       </c>
       <c r="AD12" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0.007397581712</v>
       </c>
       <c r="AE12" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0.007397581712</v>
       </c>
       <c r="AF12" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0.007397581712</v>
       </c>
       <c r="AG12" s="21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0.007397581712</v>
       </c>
     </row>
@@ -1640,48 +1640,48 @@
         <v>-0.02776247541</v>
       </c>
       <c r="Q13" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="U13" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U13:Y13" si="21">U$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="V13" s="19">
-        <f t="shared" ref="V13:Y13" si="25">V$2/2</f>
+        <f t="shared" si="21"/>
         <v>0.0078</v>
       </c>
       <c r="W13" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0.0078</v>
       </c>
       <c r="X13" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0.0078</v>
       </c>
       <c r="Y13" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0.0078</v>
       </c>
       <c r="Z13" s="22"/>
       <c r="AC13" s="21">
-        <f t="shared" ref="AC13:AG13" si="26">U13/(1+U$68)^$Q13</f>
+        <f t="shared" ref="AC13:AG13" si="22">U13/(1+U$68)^$Q13</f>
         <v>0.007341813809</v>
       </c>
       <c r="AD13" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.007341813809</v>
       </c>
       <c r="AE13" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.007341813809</v>
       </c>
       <c r="AF13" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.007341813809</v>
       </c>
       <c r="AG13" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0.007341813809</v>
       </c>
     </row>
@@ -1708,48 +1708,48 @@
         <v>-0.02901568987</v>
       </c>
       <c r="Q14" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="U14" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="U14:Y14" si="23">U$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="V14" s="19">
-        <f t="shared" ref="V14:Y14" si="27">V$2/2</f>
+        <f t="shared" si="23"/>
         <v>0.0078</v>
       </c>
       <c r="W14" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.0078</v>
       </c>
       <c r="X14" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.0078</v>
       </c>
       <c r="Y14" s="19">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.0078</v>
       </c>
       <c r="Z14" s="22"/>
       <c r="AC14" s="21">
-        <f t="shared" ref="AC14:AG14" si="28">U14/(1+U$68)^$Q14</f>
+        <f t="shared" ref="AC14:AG14" si="24">U14/(1+U$68)^$Q14</f>
         <v>0.007286466321</v>
       </c>
       <c r="AD14" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.007286466321</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.007286466321</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.007286466321</v>
       </c>
       <c r="AG14" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0.007286466321</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         <v>-0.03026890434</v>
       </c>
       <c r="Q15" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="U15" s="19">
@@ -1787,40 +1787,40 @@
         <v>1.0078</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" ref="V15:Y15" si="29">V$2/2</f>
+        <f t="shared" ref="V15:Y15" si="25">V$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="W15" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0.0078</v>
       </c>
       <c r="X15" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0.0078</v>
       </c>
       <c r="Y15" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0.0078</v>
       </c>
       <c r="Z15" s="22"/>
       <c r="AC15" s="21">
-        <f t="shared" ref="AC15:AG15" si="30">U15/(1+U$68)^$Q15</f>
+        <f t="shared" ref="AC15:AG15" si="26">U15/(1+U$68)^$Q15</f>
         <v>0.9343515464</v>
       </c>
       <c r="AD15" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0.00723153608</v>
       </c>
       <c r="AE15" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0.00723153608</v>
       </c>
       <c r="AF15" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0.00723153608</v>
       </c>
       <c r="AG15" s="21">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0.00723153608</v>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" ref="M16:M351" si="33">(1/N16)^(1/J16) - 1</f>
+        <f t="shared" ref="M16:M351" si="29">(1/N16)^(1/J16) - 1</f>
         <v>0.001262</v>
       </c>
       <c r="N16" s="8">
@@ -1842,44 +1842,44 @@
         <v>0.9689617819</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" ref="O16:O27" si="34">$O$15+$G$33*(J16-$J$15)</f>
+        <f t="shared" ref="O16:O27" si="30">$O$15+$G$33*(J16-$J$15)</f>
         <v>-0.03153010868</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="V16" s="19">
-        <f t="shared" ref="V16:Y16" si="31">V$2/2</f>
+        <f t="shared" ref="V16:Y16" si="27">V$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="W16" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0.0078</v>
       </c>
       <c r="X16" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0.0078</v>
       </c>
       <c r="Y16" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0.0078</v>
       </c>
       <c r="Z16" s="22"/>
       <c r="AD16" s="21">
-        <f t="shared" ref="AD16:AG16" si="32">V16/(1+V$68)^$Q16</f>
+        <f t="shared" ref="AD16:AG16" si="28">V16/(1+V$68)^$Q16</f>
         <v>0.00717701994</v>
       </c>
       <c r="AE16" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.00717701994</v>
       </c>
       <c r="AF16" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.00717701994</v>
       </c>
       <c r="AG16" s="21">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.00717701994</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N17" s="8">
@@ -1902,44 +1902,44 @@
         <v>0.9677404933</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.03279131303</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>72</v>
       </c>
       <c r="V17" s="19">
-        <f t="shared" ref="V17:Y17" si="35">V$2/2</f>
+        <f t="shared" ref="V17:Y17" si="31">V$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="W17" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.0078</v>
       </c>
       <c r="X17" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.0078</v>
       </c>
       <c r="Y17" s="19">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.0078</v>
       </c>
       <c r="Z17" s="22"/>
       <c r="AD17" s="21">
-        <f t="shared" ref="AD17:AG17" si="36">V17/(1+V$68)^$Q17</f>
+        <f t="shared" ref="AD17:AG17" si="32">V17/(1+V$68)^$Q17</f>
         <v>0.007122914779</v>
       </c>
       <c r="AE17" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.007122914779</v>
       </c>
       <c r="AF17" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.007122914779</v>
       </c>
       <c r="AG17" s="21">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.007122914779</v>
       </c>
     </row>
@@ -1969,52 +1969,52 @@
         <v>0.01524955794</v>
       </c>
       <c r="M18" s="9">
+        <f t="shared" si="29"/>
+        <v>0.001262</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="4"/>
+        <v>0.9665207442</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="30"/>
+        <v>-0.03405251738</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="V18" s="19">
+        <f t="shared" ref="V18:Y18" si="33">V$2/2</f>
+        <v>0.0078</v>
+      </c>
+      <c r="W18" s="19">
         <f t="shared" si="33"/>
-        <v>0.001262</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9665207442</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="34"/>
-        <v>-0.03405251738</v>
-      </c>
-      <c r="Q18" s="23">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="V18" s="19">
-        <f t="shared" ref="V18:Y18" si="37">V$2/2</f>
-        <v>0.0078</v>
-      </c>
-      <c r="W18" s="19">
-        <f t="shared" si="37"/>
         <v>0.0078</v>
       </c>
       <c r="X18" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>0.0078</v>
       </c>
       <c r="Y18" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>0.0078</v>
       </c>
       <c r="Z18" s="22"/>
       <c r="AD18" s="21">
-        <f t="shared" ref="AD18:AG18" si="38">V18/(1+V$68)^$Q18</f>
+        <f t="shared" ref="AD18:AG18" si="34">V18/(1+V$68)^$Q18</f>
         <v>0.007069217498</v>
       </c>
       <c r="AE18" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>0.007069217498</v>
       </c>
       <c r="AF18" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>0.007069217498</v>
       </c>
       <c r="AG18" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="34"/>
         <v>0.007069217498</v>
       </c>
     </row>
@@ -2026,18 +2026,18 @@
         <v>0.0153</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ref="D19:D26" si="41">(1+E19)^12 - 1</f>
+        <f t="shared" ref="D19:D26" si="37">(1+E19)^12 - 1</f>
         <v>0.01534690333</v>
       </c>
       <c r="E19" s="28">
         <v>0.00127</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:F26" si="42">1/(1+E19)^B19</f>
+        <f t="shared" ref="F19:F26" si="38">1/(1+E19)^B19</f>
         <v>0.9848850641</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" ref="G19:G26" si="43">LN(F19)</f>
+        <f t="shared" ref="G19:G26" si="39">LN(F19)</f>
         <v>-0.01523033079</v>
       </c>
       <c r="J19" s="6">
@@ -2049,7 +2049,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N19" s="8">
@@ -2057,11 +2057,11 @@
         <v>0.9653025324</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.03531372173</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="V19" s="24">
@@ -2069,32 +2069,32 @@
         <v>1.0078</v>
       </c>
       <c r="W19" s="19">
-        <f t="shared" ref="W19:Y19" si="39">W$2/2</f>
+        <f t="shared" ref="W19:Y19" si="35">W$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="X19" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>0.0078</v>
       </c>
       <c r="Y19" s="19">
-        <f t="shared" si="39"/>
+        <f t="shared" si="35"/>
         <v>0.0078</v>
       </c>
       <c r="Z19" s="22"/>
       <c r="AD19" s="21">
-        <f t="shared" ref="AD19:AG19" si="40">V19/(1+V$68)^$Q19</f>
+        <f t="shared" ref="AD19:AG19" si="36">V19/(1+V$68)^$Q19</f>
         <v>0.9064934921</v>
       </c>
       <c r="AE19" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>0.007015925024</v>
       </c>
       <c r="AF19" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>0.007015925024</v>
       </c>
       <c r="AG19" s="21">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>0.007015925024</v>
       </c>
     </row>
@@ -2106,18 +2106,18 @@
         <v>0.0152</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E20" s="28">
         <v>0.001262</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>0.9701846116</v>
       </c>
       <c r="G20" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>-0.03026890434</v>
       </c>
       <c r="J20" s="6">
@@ -2129,7 +2129,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N20" s="8">
@@ -2137,36 +2137,36 @@
         <v>0.964085856</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.03657492607</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="W20" s="19">
-        <f t="shared" ref="W20:Y20" si="44">W$2/2</f>
+        <f t="shared" ref="W20:Y20" si="40">W$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="X20" s="19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>0.0078</v>
       </c>
       <c r="Y20" s="19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>0.0078</v>
       </c>
       <c r="Z20" s="22"/>
       <c r="AE20" s="21">
-        <f t="shared" ref="AE20:AG20" si="45">W20/(1+W$68)^$Q20</f>
+        <f t="shared" ref="AE20:AG20" si="41">W20/(1+W$68)^$Q20</f>
         <v>0.006963034303</v>
       </c>
       <c r="AF20" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>0.006963034303</v>
       </c>
       <c r="AG20" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>0.006963034303</v>
       </c>
     </row>
@@ -2178,67 +2178,67 @@
         <v>0.0152</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E21" s="28">
         <v>0.001262</v>
       </c>
       <c r="F21" s="8">
+        <f t="shared" si="38"/>
+        <v>0.9556119518</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="39"/>
+        <v>-0.0454033565</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="1"/>
+        <v>0.01524955794</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="29"/>
+        <v>0.001262</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="4"/>
+        <v>0.9628707132</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="30"/>
+        <v>-0.03783613042</v>
+      </c>
+      <c r="Q21" s="23">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="W21" s="19">
+        <f t="shared" ref="W21:Y21" si="42">W$2/2</f>
+        <v>0.0078</v>
+      </c>
+      <c r="X21" s="19">
         <f t="shared" si="42"/>
-        <v>0.9556119518</v>
-      </c>
-      <c r="G21" s="19">
-        <f t="shared" si="43"/>
-        <v>-0.0454033565</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L21" s="5">
-        <f t="shared" si="1"/>
-        <v>0.01524955794</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="33"/>
-        <v>0.001262</v>
-      </c>
-      <c r="N21" s="8">
-        <f t="shared" si="4"/>
-        <v>0.9628707132</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="34"/>
-        <v>-0.03783613042</v>
-      </c>
-      <c r="Q21" s="23">
-        <f t="shared" si="11"/>
-        <v>96</v>
-      </c>
-      <c r="W21" s="19">
-        <f t="shared" ref="W21:Y21" si="46">W$2/2</f>
-        <v>0.0078</v>
-      </c>
-      <c r="X21" s="19">
-        <f t="shared" si="46"/>
         <v>0.0078</v>
       </c>
       <c r="Y21" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" si="42"/>
         <v>0.0078</v>
       </c>
       <c r="Z21" s="22"/>
       <c r="AE21" s="21">
-        <f t="shared" ref="AE21:AG21" si="47">W21/(1+W$68)^$Q21</f>
+        <f t="shared" ref="AE21:AG21" si="43">W21/(1+W$68)^$Q21</f>
         <v>0.006910542308</v>
       </c>
       <c r="AF21" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>0.006910542308</v>
       </c>
       <c r="AG21" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="43"/>
         <v>0.006910542308</v>
       </c>
     </row>
@@ -2250,18 +2250,18 @@
         <v>0.0156</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E22" s="28">
         <v>0.001262</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>0.9271200103</v>
       </c>
       <c r="G22" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>-0.07567226084</v>
       </c>
       <c r="J22" s="6">
@@ -2273,7 +2273,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N22" s="8">
@@ -2281,36 +2281,36 @@
         <v>0.9616571019</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.03909733477</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="W22" s="19">
-        <f t="shared" ref="W22:Y22" si="48">W$2/2</f>
+        <f t="shared" ref="W22:Y22" si="44">W$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="X22" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>0.0078</v>
       </c>
       <c r="Y22" s="19">
-        <f t="shared" si="48"/>
+        <f t="shared" si="44"/>
         <v>0.0078</v>
       </c>
       <c r="Z22" s="22"/>
       <c r="AE22" s="21">
-        <f t="shared" ref="AE22:AG22" si="49">W22/(1+W$68)^$Q22</f>
+        <f t="shared" ref="AE22:AG22" si="45">W22/(1+W$68)^$Q22</f>
         <v>0.006858446033</v>
       </c>
       <c r="AF22" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.006858446033</v>
       </c>
       <c r="AG22" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0.006858446033</v>
       </c>
     </row>
@@ -2322,18 +2322,18 @@
         <v>0.0156</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E23" s="28">
         <v>0.001262</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>0.8994775671</v>
       </c>
       <c r="G23" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>-0.1059411652</v>
       </c>
       <c r="J23" s="6">
@@ -2345,7 +2345,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N23" s="8">
@@ -2353,36 +2353,36 @@
         <v>0.9604450203</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.04035853911</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="W23" s="19">
-        <f t="shared" ref="W23:Y23" si="50">W$2/2</f>
+        <f t="shared" ref="W23:Y23" si="46">W$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="X23" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.0078</v>
       </c>
       <c r="Y23" s="19">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0.0078</v>
       </c>
       <c r="Z23" s="22"/>
       <c r="AE23" s="21">
-        <f t="shared" ref="AE23:AG23" si="51">W23/(1+W$68)^$Q23</f>
+        <f t="shared" ref="AE23:AG23" si="47">W23/(1+W$68)^$Q23</f>
         <v>0.006806742494</v>
       </c>
       <c r="AF23" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0.006806742494</v>
       </c>
       <c r="AG23" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>0.006806742494</v>
       </c>
     </row>
@@ -2394,18 +2394,18 @@
         <v>0.0156</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E24" s="28">
         <v>0.001262</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>0.8595515135</v>
       </c>
       <c r="G24" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>-0.1513445217</v>
       </c>
       <c r="J24" s="6">
@@ -2417,7 +2417,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N24" s="8">
@@ -2425,36 +2425,36 @@
         <v>0.9592344664</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.04161974346</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="W24" s="19">
-        <f t="shared" ref="W24:Y24" si="52">W$2/2</f>
+        <f t="shared" ref="W24:Y24" si="48">W$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="X24" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.0078</v>
       </c>
       <c r="Y24" s="19">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0.0078</v>
       </c>
       <c r="Z24" s="22"/>
       <c r="AE24" s="21">
-        <f t="shared" ref="AE24:AG24" si="53">W24/(1+W$68)^$Q24</f>
+        <f t="shared" ref="AE24:AG24" si="49">W24/(1+W$68)^$Q24</f>
         <v>0.006755428731</v>
       </c>
       <c r="AF24" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0.006755428731</v>
       </c>
       <c r="AG24" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>0.006755428731</v>
       </c>
     </row>
@@ -2466,18 +2466,18 @@
         <v>0.0156</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E25" s="28">
         <v>0.001262</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>0.7388288044</v>
       </c>
       <c r="G25" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>-0.3026890434</v>
       </c>
       <c r="J25" s="6">
@@ -2489,7 +2489,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N25" s="8">
@@ -2497,11 +2497,11 @@
         <v>0.9580254383</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.04288094781</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="W25" s="24">
@@ -2509,24 +2509,24 @@
         <v>1.0078</v>
       </c>
       <c r="X25" s="19">
-        <f t="shared" ref="X25:Y25" si="54">X$2/2</f>
+        <f t="shared" ref="X25:Y25" si="50">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y25" s="19">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0.0078</v>
       </c>
       <c r="Z25" s="22"/>
       <c r="AE25" s="21">
-        <f t="shared" ref="AE25:AG25" si="55">W25/(1+W$68)^$Q25</f>
+        <f t="shared" ref="AE25:AG25" si="51">W25/(1+W$68)^$Q25</f>
         <v>0.8662560153</v>
       </c>
       <c r="AF25" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>0.006704501805</v>
       </c>
       <c r="AG25" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>0.006704501805</v>
       </c>
     </row>
@@ -2538,18 +2538,18 @@
         <v>0.0156</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.01524955794</v>
       </c>
       <c r="E26" s="28">
         <v>0.001262</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>0.635061417</v>
       </c>
       <c r="G26" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>-0.454033565</v>
       </c>
       <c r="J26" s="6">
@@ -2561,7 +2561,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N26" s="8">
@@ -2569,28 +2569,28 @@
         <v>0.9568179341</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.04414215216</v>
       </c>
       <c r="Q26" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
       <c r="X26" s="19">
-        <f t="shared" ref="X26:Y26" si="56">X$2/2</f>
+        <f t="shared" ref="X26:Y26" si="52">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y26" s="19">
-        <f t="shared" si="56"/>
+        <f t="shared" si="52"/>
         <v>0.0078</v>
       </c>
       <c r="Z26" s="22"/>
       <c r="AF26" s="21">
-        <f t="shared" ref="AF26:AG26" si="57">X26/(1+X$68)^$Q26</f>
+        <f t="shared" ref="AF26:AG26" si="53">X26/(1+X$68)^$Q26</f>
         <v>0.006653958801</v>
       </c>
       <c r="AG26" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="53"/>
         <v>0.006653958801</v>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N27" s="8">
@@ -2616,28 +2616,28 @@
         <v>0.9556119518</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>-0.0454033565</v>
       </c>
       <c r="Q27" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
       <c r="X27" s="19">
-        <f t="shared" ref="X27:Y27" si="58">X$2/2</f>
+        <f t="shared" ref="X27:Y27" si="54">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y27" s="19">
-        <f t="shared" si="58"/>
+        <f t="shared" si="54"/>
         <v>0.0078</v>
       </c>
       <c r="Z27" s="22"/>
       <c r="AF27" s="21">
-        <f t="shared" ref="AF27:AG27" si="59">X27/(1+X$68)^$Q27</f>
+        <f t="shared" ref="AF27:AG27" si="55">X27/(1+X$68)^$Q27</f>
         <v>0.006603796823</v>
       </c>
       <c r="AG27" s="21">
-        <f t="shared" si="59"/>
+        <f t="shared" si="55"/>
         <v>0.006603796823</v>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N28" s="8">
@@ -2659,28 +2659,28 @@
         <v>0.9544074895</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" ref="O28:O51" si="62">$O$27+$G$34*(J28-$J$27)</f>
+        <f t="shared" ref="O28:O51" si="58">$O$27+$G$34*(J28-$J$27)</f>
         <v>-0.04666456085</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="X28" s="19">
-        <f t="shared" ref="X28:Y28" si="60">X$2/2</f>
+        <f t="shared" ref="X28:Y28" si="56">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y28" s="19">
-        <f t="shared" si="60"/>
+        <f t="shared" si="56"/>
         <v>0.0078</v>
       </c>
       <c r="Z28" s="22"/>
       <c r="AF28" s="21">
-        <f t="shared" ref="AF28:AG28" si="61">X28/(1+X$68)^$Q28</f>
+        <f t="shared" ref="AF28:AG28" si="57">X28/(1+X$68)^$Q28</f>
         <v>0.006554013</v>
       </c>
       <c r="AG28" s="21">
-        <f t="shared" si="61"/>
+        <f t="shared" si="57"/>
         <v>0.006554013</v>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N29" s="8">
@@ -2702,28 +2702,28 @@
         <v>0.9532045454</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.0479257652</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="X29" s="19">
-        <f t="shared" ref="X29:Y29" si="63">X$2/2</f>
+        <f t="shared" ref="X29:Y29" si="59">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y29" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>0.0078</v>
       </c>
       <c r="Z29" s="22"/>
       <c r="AF29" s="21">
-        <f t="shared" ref="AF29:AG29" si="64">X29/(1+X$68)^$Q29</f>
+        <f t="shared" ref="AF29:AG29" si="60">X29/(1+X$68)^$Q29</f>
         <v>0.00650460448</v>
       </c>
       <c r="AG29" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>0.00650460448</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N30" s="8">
@@ -2745,28 +2745,28 @@
         <v>0.9520031175</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.04918696955</v>
       </c>
       <c r="Q30" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="X30" s="19">
-        <f t="shared" ref="X30:Y30" si="65">X$2/2</f>
+        <f t="shared" ref="X30:Y30" si="61">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y30" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0.0078</v>
       </c>
       <c r="Z30" s="22"/>
       <c r="AF30" s="21">
-        <f t="shared" ref="AF30:AG30" si="66">X30/(1+X$68)^$Q30</f>
+        <f t="shared" ref="AF30:AG30" si="62">X30/(1+X$68)^$Q30</f>
         <v>0.006455568435</v>
       </c>
       <c r="AG30" s="21">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>0.006455568435</v>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N31" s="8">
@@ -2788,28 +2788,28 @@
         <v>0.9508032038</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05044817389</v>
       </c>
       <c r="Q31" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="X31" s="19">
-        <f t="shared" ref="X31:Y31" si="67">X$2/2</f>
+        <f t="shared" ref="X31:Y31" si="63">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y31" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>0.0078</v>
       </c>
       <c r="Z31" s="22"/>
       <c r="AF31" s="21">
-        <f t="shared" ref="AF31:AG31" si="68">X31/(1+X$68)^$Q31</f>
+        <f t="shared" ref="AF31:AG31" si="64">X31/(1+X$68)^$Q31</f>
         <v>0.006406902056</v>
       </c>
       <c r="AG31" s="21">
-        <f t="shared" si="68"/>
+        <f t="shared" si="64"/>
         <v>0.006406902056</v>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" ref="G32:G38" si="71">(G20-G19)/(B20-B19)</f>
+        <f t="shared" ref="G32:G38" si="67">(G20-G19)/(B20-B19)</f>
         <v>-0.001253214463</v>
       </c>
       <c r="J32" s="6">
@@ -2830,7 +2830,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N32" s="8">
@@ -2838,28 +2838,28 @@
         <v>0.9496048026</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05170937824</v>
       </c>
       <c r="Q32" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" ref="X32:Y32" si="69">X$2/2</f>
+        <f t="shared" ref="X32:Y32" si="65">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y32" s="19">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>0.0078</v>
       </c>
       <c r="Z32" s="22"/>
       <c r="AF32" s="21">
-        <f t="shared" ref="AF32:AG32" si="70">X32/(1+X$68)^$Q32</f>
+        <f t="shared" ref="AF32:AG32" si="66">X32/(1+X$68)^$Q32</f>
         <v>0.006358602557</v>
       </c>
       <c r="AG32" s="21">
-        <f t="shared" si="70"/>
+        <f t="shared" si="66"/>
         <v>0.006358602557</v>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
         <v>17</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-0.001261204347</v>
       </c>
       <c r="J33" s="6">
@@ -2880,7 +2880,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N33" s="8">
@@ -2888,28 +2888,28 @@
         <v>0.9484079118</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05297058259</v>
       </c>
       <c r="Q33" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="X33" s="19">
-        <f t="shared" ref="X33:Y33" si="72">X$2/2</f>
+        <f t="shared" ref="X33:Y33" si="68">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y33" s="19">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>0.0078</v>
       </c>
       <c r="Z33" s="22"/>
       <c r="AF33" s="21">
-        <f t="shared" ref="AF33:AG33" si="73">X33/(1+X$68)^$Q33</f>
+        <f t="shared" ref="AF33:AG33" si="69">X33/(1+X$68)^$Q33</f>
         <v>0.006310667171</v>
       </c>
       <c r="AG33" s="21">
-        <f t="shared" si="73"/>
+        <f t="shared" si="69"/>
         <v>0.006310667171</v>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-0.001261204347</v>
       </c>
       <c r="J34" s="6">
@@ -2930,7 +2930,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N34" s="8">
@@ -2938,28 +2938,28 @@
         <v>0.9472125296</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05423178694</v>
       </c>
       <c r="Q34" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="X34" s="19">
-        <f t="shared" ref="X34:Y34" si="74">X$2/2</f>
+        <f t="shared" ref="X34:Y34" si="70">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y34" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="70"/>
         <v>0.0078</v>
       </c>
       <c r="Z34" s="22"/>
       <c r="AF34" s="21">
-        <f t="shared" ref="AF34:AG34" si="75">X34/(1+X$68)^$Q34</f>
+        <f t="shared" ref="AF34:AG34" si="71">X34/(1+X$68)^$Q34</f>
         <v>0.006263093155</v>
       </c>
       <c r="AG34" s="21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="71"/>
         <v>0.006263093155</v>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
         <v>19</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-0.001261204347</v>
       </c>
       <c r="J35" s="6">
@@ -2980,7 +2980,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M35" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N35" s="8">
@@ -2988,28 +2988,28 @@
         <v>0.946018654</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05549299128</v>
       </c>
       <c r="Q35" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="X35" s="19">
-        <f t="shared" ref="X35:Y35" si="76">X$2/2</f>
+        <f t="shared" ref="X35:Y35" si="72">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y35" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="72"/>
         <v>0.0078</v>
       </c>
       <c r="Z35" s="22"/>
       <c r="AF35" s="21">
-        <f t="shared" ref="AF35:AG35" si="77">X35/(1+X$68)^$Q35</f>
+        <f t="shared" ref="AF35:AG35" si="73">X35/(1+X$68)^$Q35</f>
         <v>0.006215877783</v>
       </c>
       <c r="AG35" s="21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>0.006215877783</v>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-0.001261204347</v>
       </c>
       <c r="J36" s="6">
@@ -3030,7 +3030,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N36" s="8">
@@ -3038,28 +3038,28 @@
         <v>0.9448262833</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05675419563</v>
       </c>
       <c r="Q36" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="X36" s="19">
-        <f t="shared" ref="X36:Y36" si="78">X$2/2</f>
+        <f t="shared" ref="X36:Y36" si="74">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y36" s="19">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>0.0078</v>
       </c>
       <c r="Z36" s="22"/>
       <c r="AF36" s="21">
-        <f t="shared" ref="AF36:AG36" si="79">X36/(1+X$68)^$Q36</f>
+        <f t="shared" ref="AF36:AG36" si="75">X36/(1+X$68)^$Q36</f>
         <v>0.006169018352</v>
       </c>
       <c r="AG36" s="21">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>0.006169018352</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
         <v>21</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-0.001261204347</v>
       </c>
       <c r="J37" s="6">
@@ -3080,7 +3080,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M37" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N37" s="8">
@@ -3088,28 +3088,28 @@
         <v>0.9436354154</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05801539998</v>
       </c>
       <c r="Q37" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="X37" s="19">
-        <f t="shared" ref="X37:Y37" si="80">X$2/2</f>
+        <f t="shared" ref="X37:Y37" si="76">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y37" s="19">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>0.0078</v>
       </c>
       <c r="Z37" s="22"/>
       <c r="AF37" s="21">
-        <f t="shared" ref="AF37:AG37" si="81">X37/(1+X$68)^$Q37</f>
+        <f t="shared" ref="AF37:AG37" si="77">X37/(1+X$68)^$Q37</f>
         <v>0.006122512179</v>
       </c>
       <c r="AG37" s="21">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>0.006122512179</v>
       </c>
     </row>
@@ -3118,7 +3118,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="21">
-        <f t="shared" si="71"/>
+        <f t="shared" si="67"/>
         <v>-0.001261204347</v>
       </c>
       <c r="J38" s="6">
@@ -3130,7 +3130,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N38" s="8">
@@ -3138,28 +3138,28 @@
         <v>0.9424460484</v>
       </c>
       <c r="O38" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.05927660432</v>
       </c>
       <c r="Q38" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="X38" s="19">
-        <f t="shared" ref="X38:Y38" si="82">X$2/2</f>
+        <f t="shared" ref="X38:Y38" si="78">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y38" s="19">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>0.0078</v>
       </c>
       <c r="Z38" s="22"/>
       <c r="AF38" s="21">
-        <f t="shared" ref="AF38:AG38" si="83">X38/(1+X$68)^$Q38</f>
+        <f t="shared" ref="AF38:AG38" si="79">X38/(1+X$68)^$Q38</f>
         <v>0.0060763566</v>
       </c>
       <c r="AG38" s="21">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>0.0060763566</v>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M39" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N39" s="8">
@@ -3181,28 +3181,28 @@
         <v>0.9412581806</v>
       </c>
       <c r="O39" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06053780867</v>
       </c>
       <c r="Q39" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="X39" s="19">
-        <f t="shared" ref="X39:Y39" si="84">X$2/2</f>
+        <f t="shared" ref="X39:Y39" si="80">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y39" s="19">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>0.0078</v>
       </c>
       <c r="Z39" s="22"/>
       <c r="AF39" s="21">
-        <f t="shared" ref="AF39:AG39" si="85">X39/(1+X$68)^$Q39</f>
+        <f t="shared" ref="AF39:AG39" si="81">X39/(1+X$68)^$Q39</f>
         <v>0.006030548973</v>
       </c>
       <c r="AG39" s="21">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>0.006030548973</v>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M40" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N40" s="8">
@@ -3224,28 +3224,28 @@
         <v>0.94007181</v>
       </c>
       <c r="O40" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06179901302</v>
       </c>
       <c r="Q40" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="X40" s="19">
-        <f t="shared" ref="X40:Y40" si="86">X$2/2</f>
+        <f t="shared" ref="X40:Y40" si="82">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y40" s="19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>0.0078</v>
       </c>
       <c r="Z40" s="22"/>
       <c r="AF40" s="21">
-        <f t="shared" ref="AF40:AG40" si="87">X40/(1+X$68)^$Q40</f>
+        <f t="shared" ref="AF40:AG40" si="83">X40/(1+X$68)^$Q40</f>
         <v>0.005985086674</v>
       </c>
       <c r="AG40" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>0.005985086674</v>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N41" s="8">
@@ -3267,28 +3267,28 @@
         <v>0.9388869347</v>
       </c>
       <c r="O41" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06306021737</v>
       </c>
       <c r="Q41" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="X41" s="19">
-        <f t="shared" ref="X41:Y41" si="88">X$2/2</f>
+        <f t="shared" ref="X41:Y41" si="84">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y41" s="19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>0.0078</v>
       </c>
       <c r="Z41" s="22"/>
       <c r="AF41" s="21">
-        <f t="shared" ref="AF41:AG41" si="89">X41/(1+X$68)^$Q41</f>
+        <f t="shared" ref="AF41:AG41" si="85">X41/(1+X$68)^$Q41</f>
         <v>0.0059399671</v>
       </c>
       <c r="AG41" s="21">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>0.0059399671</v>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N42" s="8">
@@ -3310,28 +3310,28 @@
         <v>0.9377035528</v>
       </c>
       <c r="O42" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06432142171</v>
       </c>
       <c r="Q42" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="X42" s="19">
-        <f t="shared" ref="X42:Y42" si="90">X$2/2</f>
+        <f t="shared" ref="X42:Y42" si="86">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y42" s="19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>0.0078</v>
       </c>
       <c r="Z42" s="22"/>
       <c r="AF42" s="21">
-        <f t="shared" ref="AF42:AG42" si="91">X42/(1+X$68)^$Q42</f>
+        <f t="shared" ref="AF42:AG42" si="87">X42/(1+X$68)^$Q42</f>
         <v>0.005895187668</v>
       </c>
       <c r="AG42" s="21">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>0.005895187668</v>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N43" s="8">
@@ -3353,28 +3353,28 @@
         <v>0.9365216625</v>
       </c>
       <c r="O43" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06558262606</v>
       </c>
       <c r="Q43" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="X43" s="19">
-        <f t="shared" ref="X43:Y43" si="92">X$2/2</f>
+        <f t="shared" ref="X43:Y43" si="88">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y43" s="19">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>0.0078</v>
       </c>
       <c r="Z43" s="22"/>
       <c r="AF43" s="21">
-        <f t="shared" ref="AF43:AG43" si="93">X43/(1+X$68)^$Q43</f>
+        <f t="shared" ref="AF43:AG43" si="89">X43/(1+X$68)^$Q43</f>
         <v>0.005850745813</v>
       </c>
       <c r="AG43" s="21">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>0.005850745813</v>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N44" s="8">
@@ -3396,28 +3396,28 @@
         <v>0.9353412618</v>
       </c>
       <c r="O44" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06684383041</v>
       </c>
       <c r="Q44" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="X44" s="19">
-        <f t="shared" ref="X44:Y44" si="94">X$2/2</f>
+        <f t="shared" ref="X44:Y44" si="90">X$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Y44" s="19">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>0.0078</v>
       </c>
       <c r="Z44" s="22"/>
       <c r="AF44" s="21">
-        <f t="shared" ref="AF44:AG44" si="95">X44/(1+X$68)^$Q44</f>
+        <f t="shared" ref="AF44:AG44" si="91">X44/(1+X$68)^$Q44</f>
         <v>0.00580663899</v>
       </c>
       <c r="AG44" s="21">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>0.00580663899</v>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M45" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N45" s="8">
@@ -3439,11 +3439,11 @@
         <v>0.9341623489</v>
       </c>
       <c r="O45" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.06810503476</v>
       </c>
       <c r="Q45" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="X45" s="24">
@@ -3451,16 +3451,16 @@
         <v>1.0078</v>
       </c>
       <c r="Y45" s="19">
-        <f t="shared" ref="Y45:Y64" si="97">Y$2/2</f>
+        <f t="shared" ref="Y45:Y64" si="93">Y$2/2</f>
         <v>0.0078</v>
       </c>
       <c r="Z45" s="22"/>
       <c r="AF45" s="21">
-        <f t="shared" ref="AF45:AG45" si="96">X45/(1+X$68)^$Q45</f>
+        <f t="shared" ref="AF45:AG45" si="92">X45/(1+X$68)^$Q45</f>
         <v>0.744591669</v>
       </c>
       <c r="AG45" s="21">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>0.005762864674</v>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N46" s="8">
@@ -3482,20 +3482,20 @@
         <v>0.9329849219</v>
       </c>
       <c r="O46" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.0693662391</v>
       </c>
       <c r="Q46" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="Y46" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z46" s="22"/>
       <c r="AG46" s="21">
-        <f t="shared" ref="AG46:AG65" si="98">Y46/(1+Y$68)^$Q46</f>
+        <f t="shared" ref="AG46:AG65" si="94">Y46/(1+Y$68)^$Q46</f>
         <v>0.005719420358</v>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M47" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N47" s="8">
@@ -3517,20 +3517,20 @@
         <v>0.931808979</v>
       </c>
       <c r="O47" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.07062744345</v>
       </c>
       <c r="Q47" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="Y47" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z47" s="22"/>
       <c r="AG47" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005676303554</v>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M48" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N48" s="8">
@@ -3552,20 +3552,20 @@
         <v>0.9306345182</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.0718886478</v>
       </c>
       <c r="Q48" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>258</v>
       </c>
       <c r="Y48" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z48" s="22"/>
       <c r="AG48" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005633511794</v>
       </c>
     </row>
@@ -3579,7 +3579,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M49" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N49" s="8">
@@ -3587,20 +3587,20 @@
         <v>0.9294615378</v>
       </c>
       <c r="O49" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.07314985215</v>
       </c>
       <c r="Q49" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>264</v>
       </c>
       <c r="Y49" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z49" s="22"/>
       <c r="AG49" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005591042626</v>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M50" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N50" s="8">
@@ -3622,20 +3622,20 @@
         <v>0.9282900358</v>
       </c>
       <c r="O50" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.07441105649</v>
       </c>
       <c r="Q50" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="Y50" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z50" s="22"/>
       <c r="AG50" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005548893619</v>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M51" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N51" s="8">
@@ -3661,20 +3661,20 @@
         <v>0.9271200103</v>
       </c>
       <c r="O51" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>-0.07567226084</v>
       </c>
       <c r="Q51" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="Y51" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z51" s="22"/>
       <c r="AG51" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005507062359</v>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M52" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N52" s="8">
@@ -3697,20 +3697,20 @@
         <v>0.9259514596</v>
       </c>
       <c r="O52" s="8">
-        <f t="shared" ref="O52:O75" si="99">$O$51+$G$35*(J52-$J$51)</f>
+        <f t="shared" ref="O52:O75" si="95">$O$51+$G$35*(J52-$J$51)</f>
         <v>-0.07693346519</v>
       </c>
       <c r="Q52" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>282</v>
       </c>
       <c r="Y52" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z52" s="22"/>
       <c r="AG52" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005465546451</v>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M53" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N53" s="8">
@@ -3733,20 +3733,20 @@
         <v>0.9247843817</v>
       </c>
       <c r="O53" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.07819466954</v>
       </c>
       <c r="Q53" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="Y53" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z53" s="22"/>
       <c r="AG53" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005424343518</v>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M54" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N54" s="8">
@@ -3769,20 +3769,20 @@
         <v>0.9236187748</v>
       </c>
       <c r="O54" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.07945587388</v>
       </c>
       <c r="Q54" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>294</v>
       </c>
       <c r="Y54" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z54" s="22"/>
       <c r="AG54" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.0053834512</v>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M55" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N55" s="8">
@@ -3805,20 +3805,20 @@
         <v>0.922454637</v>
       </c>
       <c r="O55" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08071707823</v>
       </c>
       <c r="Q55" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="Y55" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z55" s="22"/>
       <c r="AG55" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005342867156</v>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M56" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N56" s="8">
@@ -3841,20 +3841,20 @@
         <v>0.9212919666</v>
       </c>
       <c r="O56" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08197828258</v>
       </c>
       <c r="Q56" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="Y56" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z56" s="22"/>
       <c r="AG56" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005302589061</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M57" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N57" s="8">
@@ -3877,20 +3877,20 @@
         <v>0.9201307615</v>
       </c>
       <c r="O57" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08323948692</v>
       </c>
       <c r="Q57" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>312</v>
       </c>
       <c r="Y57" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z57" s="22"/>
       <c r="AG57" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.00526261461</v>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M58" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N58" s="8">
@@ -3913,20 +3913,20 @@
         <v>0.9189710201</v>
       </c>
       <c r="O58" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08450069127</v>
       </c>
       <c r="Q58" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>318</v>
       </c>
       <c r="Y58" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z58" s="22"/>
       <c r="AG58" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005222941512</v>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M59" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N59" s="8">
@@ -3949,20 +3949,20 @@
         <v>0.9178127404</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08576189562</v>
       </c>
       <c r="Q59" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>324</v>
       </c>
       <c r="Y59" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z59" s="22"/>
       <c r="AG59" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005183567497</v>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M60" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N60" s="8">
@@ -3985,20 +3985,20 @@
         <v>0.9166559207</v>
       </c>
       <c r="O60" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08702309997</v>
       </c>
       <c r="Q60" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>330</v>
       </c>
       <c r="Y60" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z60" s="22"/>
       <c r="AG60" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005144490309</v>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M61" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N61" s="8">
@@ -4021,20 +4021,20 @@
         <v>0.915500559</v>
       </c>
       <c r="O61" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08828430431</v>
       </c>
       <c r="Q61" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>336</v>
       </c>
       <c r="Y61" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z61" s="22"/>
       <c r="AG61" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005105707711</v>
       </c>
     </row>
@@ -4049,7 +4049,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M62" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N62" s="8">
@@ -4057,20 +4057,20 @@
         <v>0.9143466535</v>
       </c>
       <c r="O62" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.08954550866</v>
       </c>
       <c r="Q62" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>342</v>
       </c>
       <c r="Y62" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z62" s="22"/>
       <c r="AG62" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005067217482</v>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M63" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N63" s="8">
@@ -4093,20 +4093,20 @@
         <v>0.9131942024</v>
       </c>
       <c r="O63" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.09080671301</v>
       </c>
       <c r="Q63" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>348</v>
       </c>
       <c r="Y63" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z63" s="22"/>
       <c r="AG63" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.005029017419</v>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M64" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N64" s="8">
@@ -4129,20 +4129,20 @@
         <v>0.9120432039</v>
       </c>
       <c r="O64" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.09206791736</v>
       </c>
       <c r="Q64" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>354</v>
       </c>
       <c r="Y64" s="19">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>0.0078</v>
       </c>
       <c r="Z64" s="22"/>
       <c r="AG64" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.004991105332</v>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M65" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N65" s="8">
@@ -4165,11 +4165,11 @@
         <v>0.9108936561</v>
       </c>
       <c r="O65" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.0933291217</v>
       </c>
       <c r="Q65" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="Y65" s="11">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="Z65" s="22"/>
       <c r="AG65" s="21">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.6400148961</v>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M66" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N66" s="8">
@@ -4201,7 +4201,7 @@
         <v>0.9097455572</v>
       </c>
       <c r="O66" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.09459032605</v>
       </c>
       <c r="Q66" s="33"/>
@@ -4223,7 +4223,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M67" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N67" s="8">
@@ -4231,7 +4231,7 @@
         <v>0.9085989054</v>
       </c>
       <c r="O67" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.0958515304</v>
       </c>
       <c r="R67" s="34" t="s">
@@ -4278,7 +4278,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M68" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N68" s="8">
@@ -4286,7 +4286,7 @@
         <v>0.9074536988</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.09711273475</v>
       </c>
       <c r="Q68" s="3" t="s">
@@ -4325,35 +4325,35 @@
         <v>0.001262</v>
       </c>
       <c r="Z68" s="38">
-        <f t="shared" ref="Z68:AG68" si="100">SUM(Z6:Z65)-1</f>
+        <f t="shared" ref="Z68:AG68" si="96">SUM(Z6:Z65)-1</f>
         <v>0.0000114001031</v>
       </c>
       <c r="AA68" s="39">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.00001597588724</v>
       </c>
       <c r="AB68" s="39">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.00002378431044</v>
       </c>
       <c r="AC68" s="39">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.001957973184</v>
       </c>
       <c r="AD68" s="39">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.002700607242</v>
       </c>
       <c r="AE68" s="39">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.003773249303</v>
       </c>
       <c r="AF68" s="39">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.007016551453</v>
       </c>
       <c r="AG68" s="40">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>0.009804336724</v>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M69" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N69" s="8">
@@ -4376,7 +4376,7 @@
         <v>0.9063099357</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.09837393909</v>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M70" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N70" s="8">
@@ -4399,7 +4399,7 @@
         <v>0.9051676141</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.09963514344</v>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M71" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N71" s="8">
@@ -4422,7 +4422,7 @@
         <v>0.9040267324</v>
       </c>
       <c r="O71" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.1008963478</v>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M72" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N72" s="8">
@@ -4445,7 +4445,7 @@
         <v>0.9028872886</v>
       </c>
       <c r="O72" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.1021575521</v>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M73" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N73" s="8">
@@ -4468,7 +4468,7 @@
         <v>0.9017492811</v>
       </c>
       <c r="O73" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.1034187565</v>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M74" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N74" s="8">
@@ -4491,7 +4491,7 @@
         <v>0.9006127078</v>
       </c>
       <c r="O74" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.1046799608</v>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M75" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N75" s="8">
@@ -4517,7 +4517,7 @@
         <v>0.8994775671</v>
       </c>
       <c r="O75" s="8">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>-0.1059411652</v>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M76" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N76" s="8">
@@ -4540,7 +4540,7 @@
         <v>0.8983438572</v>
       </c>
       <c r="O76" s="8">
-        <f t="shared" ref="O76:O111" si="101">$O$75+$G$36*(J76-$J$75)</f>
+        <f t="shared" ref="O76:O111" si="97">$O$75+$G$36*(J76-$J$75)</f>
         <v>-0.1072023695</v>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M77" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N77" s="8">
@@ -4563,7 +4563,7 @@
         <v>0.8972115762</v>
       </c>
       <c r="O77" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1084635739</v>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M78" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N78" s="8">
@@ -4586,7 +4586,7 @@
         <v>0.8960807223</v>
       </c>
       <c r="O78" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1097247782</v>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M79" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N79" s="8">
@@ -4609,7 +4609,7 @@
         <v>0.8949512938</v>
       </c>
       <c r="O79" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1109859826</v>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M80" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N80" s="8">
@@ -4632,7 +4632,7 @@
         <v>0.8938232888</v>
       </c>
       <c r="O80" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1122471869</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M81" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N81" s="8">
@@ -4655,7 +4655,7 @@
         <v>0.8926967055</v>
       </c>
       <c r="O81" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1135083913</v>
       </c>
     </row>
@@ -4670,7 +4670,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M82" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N82" s="8">
@@ -4678,7 +4678,7 @@
         <v>0.8915715422</v>
       </c>
       <c r="O82" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1147695956</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M83" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N83" s="8">
@@ -4701,7 +4701,7 @@
         <v>0.8904477971</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1160308</v>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M84" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N84" s="8">
@@ -4724,7 +4724,7 @@
         <v>0.8893254684</v>
       </c>
       <c r="O84" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1172920043</v>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M85" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N85" s="8">
@@ -4747,7 +4747,7 @@
         <v>0.8882045542</v>
       </c>
       <c r="O85" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1185532086</v>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M86" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N86" s="8">
@@ -4770,7 +4770,7 @@
         <v>0.8870850529</v>
       </c>
       <c r="O86" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.119814413</v>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M87" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N87" s="8">
@@ -4793,7 +4793,7 @@
         <v>0.8859669626</v>
       </c>
       <c r="O87" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1210756173</v>
       </c>
     </row>
@@ -4808,7 +4808,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M88" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N88" s="8">
@@ -4816,7 +4816,7 @@
         <v>0.8848502815</v>
       </c>
       <c r="O88" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1223368217</v>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M89" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N89" s="8">
@@ -4839,7 +4839,7 @@
         <v>0.883735008</v>
       </c>
       <c r="O89" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.123598026</v>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M90" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N90" s="8">
@@ -4862,7 +4862,7 @@
         <v>0.8826211401</v>
       </c>
       <c r="O90" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1248592304</v>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M91" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N91" s="8">
@@ -4885,7 +4885,7 @@
         <v>0.8815086761</v>
       </c>
       <c r="O91" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1261204347</v>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M92" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N92" s="8">
@@ -4908,7 +4908,7 @@
         <v>0.8803976143</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1273816391</v>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N93" s="8">
@@ -4931,7 +4931,7 @@
         <v>0.8792879529</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1286428434</v>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M94" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N94" s="8">
@@ -4954,7 +4954,7 @@
         <v>0.8781796902</v>
       </c>
       <c r="O94" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1299040478</v>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M95" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N95" s="8">
@@ -4977,7 +4977,7 @@
         <v>0.8770728243</v>
       </c>
       <c r="O95" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1311652521</v>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M96" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N96" s="8">
@@ -5000,7 +5000,7 @@
         <v>0.8759673535</v>
       </c>
       <c r="O96" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1324264565</v>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M97" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N97" s="8">
@@ -5023,7 +5023,7 @@
         <v>0.874863276</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1336876608</v>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M98" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N98" s="8">
@@ -5046,7 +5046,7 @@
         <v>0.8737605901</v>
       </c>
       <c r="O98" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1349488652</v>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M99" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N99" s="8">
@@ -5069,7 +5069,7 @@
         <v>0.8726592941</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1362100695</v>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M100" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N100" s="8">
@@ -5092,7 +5092,7 @@
         <v>0.8715593862</v>
       </c>
       <c r="O100" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1374712739</v>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M101" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N101" s="8">
@@ -5115,7 +5115,7 @@
         <v>0.8704608646</v>
       </c>
       <c r="O101" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1387324782</v>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M102" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N102" s="8">
@@ -5138,7 +5138,7 @@
         <v>0.8693637275</v>
       </c>
       <c r="O102" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1399936826</v>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M103" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N103" s="8">
@@ -5161,7 +5161,7 @@
         <v>0.8682679734</v>
       </c>
       <c r="O103" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1412548869</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M104" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N104" s="8">
@@ -5184,7 +5184,7 @@
         <v>0.8671736003</v>
       </c>
       <c r="O104" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1425160912</v>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N105" s="8">
@@ -5207,7 +5207,7 @@
         <v>0.8660806065</v>
       </c>
       <c r="O105" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1437772956</v>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M106" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N106" s="8">
@@ -5230,7 +5230,7 @@
         <v>0.8649889904</v>
       </c>
       <c r="O106" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1450384999</v>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M107" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N107" s="8">
@@ -5253,7 +5253,7 @@
         <v>0.8638987502</v>
       </c>
       <c r="O107" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1462997043</v>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M108" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N108" s="8">
@@ -5276,7 +5276,7 @@
         <v>0.8628098841</v>
       </c>
       <c r="O108" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1475609086</v>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M109" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N109" s="8">
@@ -5299,7 +5299,7 @@
         <v>0.8617223905</v>
       </c>
       <c r="O109" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.148822113</v>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M110" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N110" s="8">
@@ -5322,7 +5322,7 @@
         <v>0.8606362675</v>
       </c>
       <c r="O110" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1500833173</v>
       </c>
     </row>
@@ -5340,7 +5340,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M111" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N111" s="8">
@@ -5348,7 +5348,7 @@
         <v>0.8595515135</v>
       </c>
       <c r="O111" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>-0.1513445217</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M112" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N112" s="8">
@@ -5371,7 +5371,7 @@
         <v>0.8584681267</v>
       </c>
       <c r="O112" s="8">
-        <f t="shared" ref="O112:O231" si="102">$O$111+$G$37*(J112-$J$111)</f>
+        <f t="shared" ref="O112:O231" si="98">$O$111+$G$37*(J112-$J$111)</f>
         <v>-0.152605726</v>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M113" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N113" s="8">
@@ -5394,7 +5394,7 @@
         <v>0.8573861055</v>
       </c>
       <c r="O113" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1538669304</v>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M114" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N114" s="8">
@@ -5417,7 +5417,7 @@
         <v>0.856305448</v>
       </c>
       <c r="O114" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1551281347</v>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M115" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N115" s="8">
@@ -5440,7 +5440,7 @@
         <v>0.8552261526</v>
       </c>
       <c r="O115" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1563893391</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M116" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N116" s="8">
@@ -5463,7 +5463,7 @@
         <v>0.8541482175</v>
       </c>
       <c r="O116" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1576505434</v>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M117" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N117" s="8">
@@ -5486,7 +5486,7 @@
         <v>0.8530716411</v>
       </c>
       <c r="O117" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1589117478</v>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M118" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N118" s="8">
@@ -5509,7 +5509,7 @@
         <v>0.8519964216</v>
       </c>
       <c r="O118" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1601729521</v>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M119" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N119" s="8">
@@ -5532,7 +5532,7 @@
         <v>0.8509225574</v>
       </c>
       <c r="O119" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1614341565</v>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M120" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N120" s="8">
@@ -5555,7 +5555,7 @@
         <v>0.8498500466</v>
       </c>
       <c r="O120" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1626953608</v>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M121" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N121" s="8">
@@ -5578,7 +5578,7 @@
         <v>0.8487788877</v>
       </c>
       <c r="O121" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1639565652</v>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M122" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N122" s="8">
@@ -5601,7 +5601,7 @@
         <v>0.8477090788</v>
       </c>
       <c r="O122" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1652177695</v>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M123" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N123" s="8">
@@ -5624,7 +5624,7 @@
         <v>0.8466406183</v>
       </c>
       <c r="O123" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1664789738</v>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M124" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N124" s="8">
@@ -5647,7 +5647,7 @@
         <v>0.8455735046</v>
       </c>
       <c r="O124" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1677401782</v>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M125" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N125" s="8">
@@ -5670,7 +5670,7 @@
         <v>0.8445077358</v>
       </c>
       <c r="O125" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1690013825</v>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M126" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N126" s="8">
@@ -5693,7 +5693,7 @@
         <v>0.8434433104</v>
       </c>
       <c r="O126" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1702625869</v>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M127" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N127" s="8">
@@ -5716,7 +5716,7 @@
         <v>0.8423802265</v>
       </c>
       <c r="O127" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1715237912</v>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M128" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N128" s="8">
@@ -5739,7 +5739,7 @@
         <v>0.8413184826</v>
       </c>
       <c r="O128" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1727849956</v>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M129" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N129" s="8">
@@ -5762,7 +5762,7 @@
         <v>0.8402580769</v>
       </c>
       <c r="O129" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1740461999</v>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M130" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N130" s="8">
@@ -5785,7 +5785,7 @@
         <v>0.8391990077</v>
       </c>
       <c r="O130" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1753074043</v>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M131" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N131" s="8">
@@ -5808,7 +5808,7 @@
         <v>0.8381412735</v>
       </c>
       <c r="O131" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1765686086</v>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M132" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N132" s="8">
@@ -5831,7 +5831,7 @@
         <v>0.8370848724</v>
       </c>
       <c r="O132" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.177829813</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M133" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N133" s="8">
@@ -5854,7 +5854,7 @@
         <v>0.8360298027</v>
       </c>
       <c r="O133" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1790910173</v>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M134" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N134" s="8">
@@ -5877,7 +5877,7 @@
         <v>0.8349760629</v>
       </c>
       <c r="O134" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1803522217</v>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M135" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N135" s="8">
@@ -5900,7 +5900,7 @@
         <v>0.8339236513</v>
       </c>
       <c r="O135" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.181613426</v>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M136" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N136" s="8">
@@ -5923,7 +5923,7 @@
         <v>0.8328725661</v>
       </c>
       <c r="O136" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1828746304</v>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M137" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N137" s="8">
@@ -5946,7 +5946,7 @@
         <v>0.8318228057</v>
       </c>
       <c r="O137" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1841358347</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M138" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N138" s="8">
@@ -5969,7 +5969,7 @@
         <v>0.8307743685</v>
       </c>
       <c r="O138" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1853970391</v>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M139" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N139" s="8">
@@ -5992,7 +5992,7 @@
         <v>0.8297272527</v>
       </c>
       <c r="O139" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1866582434</v>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M140" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N140" s="8">
@@ -6015,7 +6015,7 @@
         <v>0.8286814567</v>
       </c>
       <c r="O140" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1879194478</v>
       </c>
     </row>
@@ -6030,7 +6030,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M141" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N141" s="8">
@@ -6038,7 +6038,7 @@
         <v>0.8276369788</v>
       </c>
       <c r="O141" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1891806521</v>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M142" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N142" s="8">
@@ -6061,7 +6061,7 @@
         <v>0.8265938174</v>
       </c>
       <c r="O142" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1904418564</v>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M143" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N143" s="8">
@@ -6084,7 +6084,7 @@
         <v>0.8255519708</v>
       </c>
       <c r="O143" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1917030608</v>
       </c>
     </row>
@@ -6099,7 +6099,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M144" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N144" s="8">
@@ -6107,7 +6107,7 @@
         <v>0.8245114374</v>
       </c>
       <c r="O144" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1929642651</v>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M145" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N145" s="8">
@@ -6130,7 +6130,7 @@
         <v>0.8234722155</v>
       </c>
       <c r="O145" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1942254695</v>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M146" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N146" s="8">
@@ -6153,7 +6153,7 @@
         <v>0.8224343034</v>
       </c>
       <c r="O146" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1954866738</v>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M147" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N147" s="8">
@@ -6176,7 +6176,7 @@
         <v>0.8213976995</v>
       </c>
       <c r="O147" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1967478782</v>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M148" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N148" s="8">
@@ -6199,7 +6199,7 @@
         <v>0.8203624021</v>
       </c>
       <c r="O148" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1980090825</v>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M149" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N149" s="8">
@@ -6222,7 +6222,7 @@
         <v>0.8193284097</v>
       </c>
       <c r="O149" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.1992702869</v>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M150" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N150" s="8">
@@ -6245,7 +6245,7 @@
         <v>0.8182957205</v>
       </c>
       <c r="O150" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2005314912</v>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M151" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N151" s="8">
@@ -6268,7 +6268,7 @@
         <v>0.8172643329</v>
       </c>
       <c r="O151" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2017926956</v>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M152" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N152" s="8">
@@ -6291,7 +6291,7 @@
         <v>0.8162342453</v>
       </c>
       <c r="O152" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2030538999</v>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M153" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N153" s="8">
@@ -6314,7 +6314,7 @@
         <v>0.815205456</v>
       </c>
       <c r="O153" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2043151043</v>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M154" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N154" s="8">
@@ -6337,7 +6337,7 @@
         <v>0.8141779634</v>
       </c>
       <c r="O154" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2055763086</v>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M155" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N155" s="8">
@@ -6360,7 +6360,7 @@
         <v>0.8131517659</v>
       </c>
       <c r="O155" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.206837513</v>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M156" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N156" s="8">
@@ -6383,7 +6383,7 @@
         <v>0.8121268618</v>
       </c>
       <c r="O156" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2080987173</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M157" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N157" s="8">
@@ -6406,7 +6406,7 @@
         <v>0.8111032495</v>
       </c>
       <c r="O157" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2093599217</v>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M158" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N158" s="8">
@@ -6429,7 +6429,7 @@
         <v>0.8100809273</v>
       </c>
       <c r="O158" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.210621126</v>
       </c>
     </row>
@@ -6444,7 +6444,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M159" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N159" s="8">
@@ -6452,7 +6452,7 @@
         <v>0.8090598938</v>
       </c>
       <c r="O159" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2118823304</v>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M160" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N160" s="8">
@@ -6475,7 +6475,7 @@
         <v>0.8080401471</v>
       </c>
       <c r="O160" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2131435347</v>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M161" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N161" s="8">
@@ -6498,7 +6498,7 @@
         <v>0.8070216857</v>
       </c>
       <c r="O161" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.214404739</v>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M162" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N162" s="8">
@@ -6521,7 +6521,7 @@
         <v>0.806004508</v>
       </c>
       <c r="O162" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2156659434</v>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M163" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N163" s="8">
@@ -6544,7 +6544,7 @@
         <v>0.8049886124</v>
       </c>
       <c r="O163" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2169271477</v>
       </c>
     </row>
@@ -6559,7 +6559,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M164" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N164" s="8">
@@ -6567,7 +6567,7 @@
         <v>0.8039739972</v>
       </c>
       <c r="O164" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2181883521</v>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M165" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N165" s="8">
@@ -6590,7 +6590,7 @@
         <v>0.8029606609</v>
       </c>
       <c r="O165" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2194495564</v>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M166" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N166" s="8">
@@ -6613,7 +6613,7 @@
         <v>0.8019486017</v>
       </c>
       <c r="O166" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2207107608</v>
       </c>
     </row>
@@ -6628,7 +6628,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M167" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N167" s="8">
@@ -6636,7 +6636,7 @@
         <v>0.8009378182</v>
       </c>
       <c r="O167" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2219719651</v>
       </c>
     </row>
@@ -6651,7 +6651,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M168" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N168" s="8">
@@ -6659,7 +6659,7 @@
         <v>0.7999283087</v>
       </c>
       <c r="O168" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2232331695</v>
       </c>
     </row>
@@ -6674,7 +6674,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M169" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N169" s="8">
@@ -6682,7 +6682,7 @@
         <v>0.7989200716</v>
       </c>
       <c r="O169" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2244943738</v>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M170" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N170" s="8">
@@ -6705,7 +6705,7 @@
         <v>0.7979131052</v>
       </c>
       <c r="O170" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2257555782</v>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M171" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N171" s="8">
@@ -6728,7 +6728,7 @@
         <v>0.7969074081</v>
       </c>
       <c r="O171" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2270167825</v>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M172" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N172" s="8">
@@ -6751,7 +6751,7 @@
         <v>0.7959029785</v>
       </c>
       <c r="O172" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2282779869</v>
       </c>
     </row>
@@ -6766,7 +6766,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M173" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N173" s="8">
@@ -6774,7 +6774,7 @@
         <v>0.7948998149</v>
       </c>
       <c r="O173" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2295391912</v>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M174" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N174" s="8">
@@ -6797,7 +6797,7 @@
         <v>0.7938979158</v>
       </c>
       <c r="O174" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2308003956</v>
       </c>
     </row>
@@ -6812,7 +6812,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M175" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N175" s="8">
@@ -6820,7 +6820,7 @@
         <v>0.7928972794</v>
       </c>
       <c r="O175" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2320615999</v>
       </c>
     </row>
@@ -6835,7 +6835,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M176" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N176" s="8">
@@ -6843,7 +6843,7 @@
         <v>0.7918979042</v>
       </c>
       <c r="O176" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2333228043</v>
       </c>
     </row>
@@ -6858,7 +6858,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M177" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N177" s="8">
@@ -6866,7 +6866,7 @@
         <v>0.7908997887</v>
       </c>
       <c r="O177" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2345840086</v>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M178" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N178" s="8">
@@ -6889,7 +6889,7 @@
         <v>0.7899029312</v>
       </c>
       <c r="O178" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.235845213</v>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M179" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N179" s="8">
@@ -6912,7 +6912,7 @@
         <v>0.7889073302</v>
       </c>
       <c r="O179" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2371064173</v>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M180" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N180" s="8">
@@ -6935,7 +6935,7 @@
         <v>0.787912984</v>
       </c>
       <c r="O180" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2383676216</v>
       </c>
     </row>
@@ -6950,7 +6950,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M181" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N181" s="8">
@@ -6958,7 +6958,7 @@
         <v>0.7869198911</v>
       </c>
       <c r="O181" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.239628826</v>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M182" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N182" s="8">
@@ -6981,7 +6981,7 @@
         <v>0.7859280499</v>
       </c>
       <c r="O182" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2408900303</v>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M183" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N183" s="8">
@@ -7004,7 +7004,7 @@
         <v>0.7849374588</v>
       </c>
       <c r="O183" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2421512347</v>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M184" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N184" s="8">
@@ -7027,7 +7027,7 @@
         <v>0.7839481163</v>
       </c>
       <c r="O184" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.243412439</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M185" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N185" s="8">
@@ -7050,7 +7050,7 @@
         <v>0.7829600207</v>
       </c>
       <c r="O185" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2446736434</v>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M186" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N186" s="8">
@@ -7073,7 +7073,7 @@
         <v>0.7819731706</v>
       </c>
       <c r="O186" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2459348477</v>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M187" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N187" s="8">
@@ -7096,7 +7096,7 @@
         <v>0.7809875643</v>
       </c>
       <c r="O187" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2471960521</v>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M188" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N188" s="8">
@@ -7119,7 +7119,7 @@
         <v>0.7800032002</v>
       </c>
       <c r="O188" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2484572564</v>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M189" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N189" s="8">
@@ -7142,7 +7142,7 @@
         <v>0.7790200769</v>
       </c>
       <c r="O189" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2497184608</v>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M190" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N190" s="8">
@@ -7165,7 +7165,7 @@
         <v>0.7780381927</v>
       </c>
       <c r="O190" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2509796651</v>
       </c>
     </row>
@@ -7180,7 +7180,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M191" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N191" s="8">
@@ -7188,7 +7188,7 @@
         <v>0.7770575461</v>
       </c>
       <c r="O191" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2522408695</v>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M192" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N192" s="8">
@@ -7211,7 +7211,7 @@
         <v>0.7760781355</v>
       </c>
       <c r="O192" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2535020738</v>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M193" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N193" s="8">
@@ -7234,7 +7234,7 @@
         <v>0.7750999593</v>
       </c>
       <c r="O193" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2547632782</v>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M194" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N194" s="8">
@@ -7257,7 +7257,7 @@
         <v>0.7741230161</v>
       </c>
       <c r="O194" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2560244825</v>
       </c>
     </row>
@@ -7272,7 +7272,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M195" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N195" s="8">
@@ -7280,7 +7280,7 @@
         <v>0.7731473042</v>
       </c>
       <c r="O195" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2572856869</v>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M196" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N196" s="8">
@@ -7303,7 +7303,7 @@
         <v>0.7721728221</v>
       </c>
       <c r="O196" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2585468912</v>
       </c>
     </row>
@@ -7318,7 +7318,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M197" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N197" s="8">
@@ -7326,7 +7326,7 @@
         <v>0.7711995682</v>
       </c>
       <c r="O197" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2598080956</v>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M198" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N198" s="8">
@@ -7349,7 +7349,7 @@
         <v>0.7702275411</v>
       </c>
       <c r="O198" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2610692999</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M199" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N199" s="8">
@@ -7372,7 +7372,7 @@
         <v>0.7692567391</v>
       </c>
       <c r="O199" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2623305042</v>
       </c>
     </row>
@@ -7387,7 +7387,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M200" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N200" s="8">
@@ -7395,7 +7395,7 @@
         <v>0.7682871607</v>
       </c>
       <c r="O200" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2635917086</v>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M201" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N201" s="8">
@@ -7418,7 +7418,7 @@
         <v>0.7673188043</v>
       </c>
       <c r="O201" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2648529129</v>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M202" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N202" s="8">
@@ -7441,7 +7441,7 @@
         <v>0.7663516685</v>
       </c>
       <c r="O202" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2661141173</v>
       </c>
     </row>
@@ -7456,7 +7456,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M203" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N203" s="8">
@@ -7464,7 +7464,7 @@
         <v>0.7653857517</v>
       </c>
       <c r="O203" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2673753216</v>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M204" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N204" s="8">
@@ -7487,7 +7487,7 @@
         <v>0.7644210523</v>
       </c>
       <c r="O204" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.268636526</v>
       </c>
     </row>
@@ -7502,7 +7502,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M205" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N205" s="8">
@@ -7510,7 +7510,7 @@
         <v>0.7634575689</v>
       </c>
       <c r="O205" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2698977303</v>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M206" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N206" s="8">
@@ -7533,7 +7533,7 @@
         <v>0.7624952998</v>
       </c>
       <c r="O206" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2711589347</v>
       </c>
     </row>
@@ -7548,7 +7548,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M207" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N207" s="8">
@@ -7556,7 +7556,7 @@
         <v>0.7615342436</v>
       </c>
       <c r="O207" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.272420139</v>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M208" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N208" s="8">
@@ -7579,7 +7579,7 @@
         <v>0.7605743987</v>
       </c>
       <c r="O208" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2736813434</v>
       </c>
     </row>
@@ -7594,7 +7594,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M209" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N209" s="8">
@@ -7602,7 +7602,7 @@
         <v>0.7596157636</v>
       </c>
       <c r="O209" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2749425477</v>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M210" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N210" s="8">
@@ -7625,7 +7625,7 @@
         <v>0.7586583368</v>
       </c>
       <c r="O210" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2762037521</v>
       </c>
     </row>
@@ -7640,7 +7640,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M211" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N211" s="8">
@@ -7648,7 +7648,7 @@
         <v>0.7577021167</v>
       </c>
       <c r="O211" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2774649564</v>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M212" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N212" s="8">
@@ -7671,7 +7671,7 @@
         <v>0.7567471019</v>
       </c>
       <c r="O212" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2787261608</v>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M213" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N213" s="8">
@@ -7694,7 +7694,7 @@
         <v>0.7557932908</v>
       </c>
       <c r="O213" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2799873651</v>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M214" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N214" s="8">
@@ -7717,7 +7717,7 @@
         <v>0.7548406818</v>
       </c>
       <c r="O214" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2812485695</v>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M215" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N215" s="8">
@@ -7740,7 +7740,7 @@
         <v>0.7538892736</v>
       </c>
       <c r="O215" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2825097738</v>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M216" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N216" s="8">
@@ -7763,7 +7763,7 @@
         <v>0.7529390645</v>
       </c>
       <c r="O216" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2837709782</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M217" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N217" s="8">
@@ -7786,7 +7786,7 @@
         <v>0.751990053</v>
       </c>
       <c r="O217" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2850321825</v>
       </c>
     </row>
@@ -7801,7 +7801,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M218" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N218" s="8">
@@ -7809,7 +7809,7 @@
         <v>0.7510422377</v>
       </c>
       <c r="O218" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2862933868</v>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M219" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N219" s="8">
@@ -7832,7 +7832,7 @@
         <v>0.750095617</v>
       </c>
       <c r="O219" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2875545912</v>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M220" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N220" s="8">
@@ -7855,7 +7855,7 @@
         <v>0.7491501895</v>
       </c>
       <c r="O220" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2888157955</v>
       </c>
     </row>
@@ -7870,7 +7870,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M221" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N221" s="8">
@@ -7878,7 +7878,7 @@
         <v>0.7482059536</v>
       </c>
       <c r="O221" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2900769999</v>
       </c>
     </row>
@@ -7893,7 +7893,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M222" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N222" s="8">
@@ -7901,7 +7901,7 @@
         <v>0.7472629078</v>
       </c>
       <c r="O222" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2913382042</v>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M223" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N223" s="8">
@@ -7924,7 +7924,7 @@
         <v>0.7463210506</v>
       </c>
       <c r="O223" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2925994086</v>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M224" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N224" s="8">
@@ -7947,7 +7947,7 @@
         <v>0.7453803806</v>
       </c>
       <c r="O224" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2938606129</v>
       </c>
     </row>
@@ -7962,7 +7962,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M225" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N225" s="8">
@@ -7970,7 +7970,7 @@
         <v>0.7444408962</v>
       </c>
       <c r="O225" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2951218173</v>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M226" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N226" s="8">
@@ -7993,7 +7993,7 @@
         <v>0.7435025959</v>
       </c>
       <c r="O226" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2963830216</v>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M227" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N227" s="8">
@@ -8016,7 +8016,7 @@
         <v>0.7425654783</v>
       </c>
       <c r="O227" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.297644226</v>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M228" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N228" s="8">
@@ -8039,7 +8039,7 @@
         <v>0.7416295418</v>
       </c>
       <c r="O228" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.2989054303</v>
       </c>
     </row>
@@ -8054,7 +8054,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M229" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N229" s="8">
@@ -8062,7 +8062,7 @@
         <v>0.740694785</v>
       </c>
       <c r="O229" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.3001666347</v>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M230" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N230" s="8">
@@ -8085,7 +8085,7 @@
         <v>0.7397612063</v>
       </c>
       <c r="O230" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.301427839</v>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M231" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N231" s="8">
@@ -8111,7 +8111,7 @@
         <v>0.7388288044</v>
       </c>
       <c r="O231" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>-0.3026890434</v>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M232" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N232" s="8">
@@ -8134,7 +8134,7 @@
         <v>0.7378975776</v>
       </c>
       <c r="O232" s="8">
-        <f t="shared" ref="O232:O351" si="103">$O$231+$G$38*(J232-$J$231)</f>
+        <f t="shared" ref="O232:O351" si="99">$O$231+$G$38*(J232-$J$231)</f>
         <v>-0.3039502477</v>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M233" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N233" s="8">
@@ -8157,7 +8157,7 @@
         <v>0.7369675246</v>
       </c>
       <c r="O233" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3052114521</v>
       </c>
     </row>
@@ -8172,7 +8172,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M234" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N234" s="8">
@@ -8180,7 +8180,7 @@
         <v>0.7360386438</v>
       </c>
       <c r="O234" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3064726564</v>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M235" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N235" s="8">
@@ -8203,7 +8203,7 @@
         <v>0.7351109338</v>
       </c>
       <c r="O235" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3077338608</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M236" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N236" s="8">
@@ -8226,7 +8226,7 @@
         <v>0.7341843931</v>
       </c>
       <c r="O236" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3089950651</v>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M237" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N237" s="8">
@@ -8249,7 +8249,7 @@
         <v>0.7332590203</v>
       </c>
       <c r="O237" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3102562694</v>
       </c>
     </row>
@@ -8264,7 +8264,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M238" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N238" s="8">
@@ -8272,7 +8272,7 @@
         <v>0.7323348137</v>
       </c>
       <c r="O238" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3115174738</v>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M239" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N239" s="8">
@@ -8295,7 +8295,7 @@
         <v>0.7314117721</v>
       </c>
       <c r="O239" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3127786781</v>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M240" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N240" s="8">
@@ -8318,7 +8318,7 @@
         <v>0.7304898938</v>
       </c>
       <c r="O240" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3140398825</v>
       </c>
     </row>
@@ -8333,7 +8333,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M241" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N241" s="8">
@@ -8341,7 +8341,7 @@
         <v>0.7295691775</v>
       </c>
       <c r="O241" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3153010868</v>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M242" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N242" s="8">
@@ -8364,7 +8364,7 @@
         <v>0.7286496217</v>
       </c>
       <c r="O242" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3165622912</v>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M243" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N243" s="8">
@@ -8387,7 +8387,7 @@
         <v>0.7277312249</v>
       </c>
       <c r="O243" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3178234955</v>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M244" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N244" s="8">
@@ -8410,7 +8410,7 @@
         <v>0.7268139856</v>
       </c>
       <c r="O244" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3190846999</v>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M245" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N245" s="8">
@@ -8433,7 +8433,7 @@
         <v>0.7258979025</v>
       </c>
       <c r="O245" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3203459042</v>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M246" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N246" s="8">
@@ -8456,7 +8456,7 @@
         <v>0.724982974</v>
       </c>
       <c r="O246" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3216071086</v>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M247" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N247" s="8">
@@ -8479,7 +8479,7 @@
         <v>0.7240691986</v>
       </c>
       <c r="O247" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3228683129</v>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M248" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N248" s="8">
@@ -8502,7 +8502,7 @@
         <v>0.7231565751</v>
       </c>
       <c r="O248" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3241295173</v>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M249" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N249" s="8">
@@ -8525,7 +8525,7 @@
         <v>0.7222451017</v>
       </c>
       <c r="O249" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3253907216</v>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M250" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N250" s="8">
@@ -8548,7 +8548,7 @@
         <v>0.7213347772</v>
       </c>
       <c r="O250" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.326651926</v>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M251" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N251" s="8">
@@ -8571,7 +8571,7 @@
         <v>0.7204256001</v>
       </c>
       <c r="O251" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3279131303</v>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M252" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N252" s="8">
@@ -8594,7 +8594,7 @@
         <v>0.719517569</v>
       </c>
       <c r="O252" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3291743347</v>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M253" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N253" s="8">
@@ -8617,7 +8617,7 @@
         <v>0.7186106823</v>
       </c>
       <c r="O253" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.330435539</v>
       </c>
     </row>
@@ -8632,7 +8632,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M254" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N254" s="8">
@@ -8640,7 +8640,7 @@
         <v>0.7177049387</v>
       </c>
       <c r="O254" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3316967434</v>
       </c>
     </row>
@@ -8655,7 +8655,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M255" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N255" s="8">
@@ -8663,7 +8663,7 @@
         <v>0.7168003366</v>
       </c>
       <c r="O255" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3329579477</v>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M256" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N256" s="8">
@@ -8686,7 +8686,7 @@
         <v>0.7158968748</v>
       </c>
       <c r="O256" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.334219152</v>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M257" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N257" s="8">
@@ -8709,7 +8709,7 @@
         <v>0.7149945516</v>
       </c>
       <c r="O257" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3354803564</v>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M258" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N258" s="8">
@@ -8732,7 +8732,7 @@
         <v>0.7140933658</v>
       </c>
       <c r="O258" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3367415607</v>
       </c>
     </row>
@@ -8747,7 +8747,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M259" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N259" s="8">
@@ -8755,7 +8755,7 @@
         <v>0.7131933159</v>
       </c>
       <c r="O259" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3380027651</v>
       </c>
     </row>
@@ -8770,7 +8770,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M260" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N260" s="8">
@@ -8778,7 +8778,7 @@
         <v>0.7122944003</v>
       </c>
       <c r="O260" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3392639694</v>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M261" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N261" s="8">
@@ -8801,7 +8801,7 @@
         <v>0.7113966178</v>
       </c>
       <c r="O261" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3405251738</v>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M262" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N262" s="8">
@@ -8824,7 +8824,7 @@
         <v>0.7104999668</v>
       </c>
       <c r="O262" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3417863781</v>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M263" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N263" s="8">
@@ -8847,7 +8847,7 @@
         <v>0.709604446</v>
       </c>
       <c r="O263" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3430475825</v>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M264" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N264" s="8">
@@ -8870,7 +8870,7 @@
         <v>0.7087100539</v>
       </c>
       <c r="O264" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3443087868</v>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M265" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N265" s="8">
@@ -8893,7 +8893,7 @@
         <v>0.7078167891</v>
       </c>
       <c r="O265" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3455699912</v>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M266" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N266" s="8">
@@ -8916,7 +8916,7 @@
         <v>0.7069246502</v>
       </c>
       <c r="O266" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3468311955</v>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M267" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N267" s="8">
@@ -8939,7 +8939,7 @@
         <v>0.7060336358</v>
       </c>
       <c r="O267" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3480923999</v>
       </c>
     </row>
@@ -8954,7 +8954,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M268" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N268" s="8">
@@ -8962,7 +8962,7 @@
         <v>0.7051437444</v>
       </c>
       <c r="O268" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3493536042</v>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M269" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N269" s="8">
@@ -8985,7 +8985,7 @@
         <v>0.7042549746</v>
       </c>
       <c r="O269" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3506148086</v>
       </c>
     </row>
@@ -9000,7 +9000,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M270" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N270" s="8">
@@ -9008,7 +9008,7 @@
         <v>0.703367325</v>
       </c>
       <c r="O270" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3518760129</v>
       </c>
     </row>
@@ -9023,7 +9023,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M271" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N271" s="8">
@@ -9031,7 +9031,7 @@
         <v>0.7024807943</v>
       </c>
       <c r="O271" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3531372173</v>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M272" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N272" s="8">
@@ -9054,7 +9054,7 @@
         <v>0.7015953809</v>
       </c>
       <c r="O272" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3543984216</v>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M273" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N273" s="8">
@@ -9077,7 +9077,7 @@
         <v>0.7007110835</v>
       </c>
       <c r="O273" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3556596259</v>
       </c>
     </row>
@@ -9092,7 +9092,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M274" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N274" s="8">
@@ -9100,7 +9100,7 @@
         <v>0.6998279007</v>
       </c>
       <c r="O274" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3569208303</v>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M275" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N275" s="8">
@@ -9123,7 +9123,7 @@
         <v>0.6989458311</v>
       </c>
       <c r="O275" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3581820346</v>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M276" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N276" s="8">
@@ -9146,7 +9146,7 @@
         <v>0.6980648732</v>
       </c>
       <c r="O276" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.359443239</v>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M277" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N277" s="8">
@@ -9169,7 +9169,7 @@
         <v>0.6971850257</v>
       </c>
       <c r="O277" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3607044433</v>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M278" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N278" s="8">
@@ -9192,7 +9192,7 @@
         <v>0.6963062872</v>
       </c>
       <c r="O278" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3619656477</v>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M279" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N279" s="8">
@@ -9215,7 +9215,7 @@
         <v>0.6954286562</v>
       </c>
       <c r="O279" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.363226852</v>
       </c>
     </row>
@@ -9230,7 +9230,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M280" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N280" s="8">
@@ -9238,7 +9238,7 @@
         <v>0.6945521314</v>
       </c>
       <c r="O280" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3644880564</v>
       </c>
     </row>
@@ -9253,7 +9253,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M281" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N281" s="8">
@@ -9261,7 +9261,7 @@
         <v>0.6936767114</v>
       </c>
       <c r="O281" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3657492607</v>
       </c>
     </row>
@@ -9276,7 +9276,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M282" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N282" s="8">
@@ -9284,7 +9284,7 @@
         <v>0.6928023948</v>
       </c>
       <c r="O282" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3670104651</v>
       </c>
     </row>
@@ -9299,7 +9299,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M283" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N283" s="8">
@@ -9307,7 +9307,7 @@
         <v>0.6919291802</v>
       </c>
       <c r="O283" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3682716694</v>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M284" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N284" s="8">
@@ -9330,7 +9330,7 @@
         <v>0.6910570661</v>
       </c>
       <c r="O284" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3695328738</v>
       </c>
     </row>
@@ -9345,7 +9345,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M285" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N285" s="8">
@@ -9353,7 +9353,7 @@
         <v>0.6901860513</v>
       </c>
       <c r="O285" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3707940781</v>
       </c>
     </row>
@@ -9368,7 +9368,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M286" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N286" s="8">
@@ -9376,7 +9376,7 @@
         <v>0.6893161344</v>
       </c>
       <c r="O286" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3720552825</v>
       </c>
     </row>
@@ -9391,7 +9391,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M287" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N287" s="8">
@@ -9399,7 +9399,7 @@
         <v>0.6884473139</v>
       </c>
       <c r="O287" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3733164868</v>
       </c>
     </row>
@@ -9414,7 +9414,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M288" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N288" s="8">
@@ -9422,7 +9422,7 @@
         <v>0.6875795884</v>
       </c>
       <c r="O288" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3745776912</v>
       </c>
     </row>
@@ -9437,7 +9437,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M289" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N289" s="8">
@@ -9445,7 +9445,7 @@
         <v>0.6867129567</v>
       </c>
       <c r="O289" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3758388955</v>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M290" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N290" s="8">
@@ -9468,7 +9468,7 @@
         <v>0.6858474172</v>
       </c>
       <c r="O290" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3771000999</v>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M291" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N291" s="8">
@@ -9491,7 +9491,7 @@
         <v>0.6849829687</v>
       </c>
       <c r="O291" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3783613042</v>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M292" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N292" s="8">
@@ -9514,7 +9514,7 @@
         <v>0.6841196098</v>
       </c>
       <c r="O292" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3796225085</v>
       </c>
     </row>
@@ -9529,7 +9529,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M293" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N293" s="8">
@@ -9537,7 +9537,7 @@
         <v>0.683257339</v>
       </c>
       <c r="O293" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3808837129</v>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M294" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N294" s="8">
@@ -9560,7 +9560,7 @@
         <v>0.6823961551</v>
       </c>
       <c r="O294" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3821449172</v>
       </c>
     </row>
@@ -9575,7 +9575,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M295" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N295" s="8">
@@ -9583,7 +9583,7 @@
         <v>0.6815360566</v>
       </c>
       <c r="O295" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3834061216</v>
       </c>
     </row>
@@ -9598,7 +9598,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M296" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N296" s="8">
@@ -9606,7 +9606,7 @@
         <v>0.6806770421</v>
       </c>
       <c r="O296" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3846673259</v>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M297" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N297" s="8">
@@ -9629,7 +9629,7 @@
         <v>0.6798191104</v>
       </c>
       <c r="O297" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3859285303</v>
       </c>
     </row>
@@ -9644,7 +9644,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M298" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N298" s="8">
@@ -9652,7 +9652,7 @@
         <v>0.67896226</v>
       </c>
       <c r="O298" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3871897346</v>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M299" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N299" s="8">
@@ -9675,7 +9675,7 @@
         <v>0.6781064897</v>
       </c>
       <c r="O299" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.388450939</v>
       </c>
     </row>
@@ -9690,7 +9690,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M300" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N300" s="8">
@@ -9698,7 +9698,7 @@
         <v>0.6772517979</v>
       </c>
       <c r="O300" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3897121433</v>
       </c>
     </row>
@@ -9713,7 +9713,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M301" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N301" s="8">
@@ -9721,7 +9721,7 @@
         <v>0.6763981834</v>
       </c>
       <c r="O301" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3909733477</v>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M302" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N302" s="8">
@@ -9744,7 +9744,7 @@
         <v>0.6755456448</v>
       </c>
       <c r="O302" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.392234552</v>
       </c>
     </row>
@@ -9759,7 +9759,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M303" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N303" s="8">
@@ -9767,7 +9767,7 @@
         <v>0.6746941807</v>
       </c>
       <c r="O303" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3934957564</v>
       </c>
     </row>
@@ -9782,7 +9782,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M304" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N304" s="8">
@@ -9790,7 +9790,7 @@
         <v>0.6738437899</v>
       </c>
       <c r="O304" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3947569607</v>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M305" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N305" s="8">
@@ -9813,7 +9813,7 @@
         <v>0.6729944708</v>
       </c>
       <c r="O305" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3960181651</v>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M306" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N306" s="8">
@@ -9836,7 +9836,7 @@
         <v>0.6721462223</v>
       </c>
       <c r="O306" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3972793694</v>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M307" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N307" s="8">
@@ -9859,7 +9859,7 @@
         <v>0.6712990429</v>
       </c>
       <c r="O307" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3985405738</v>
       </c>
     </row>
@@ -9874,7 +9874,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M308" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N308" s="8">
@@ -9882,7 +9882,7 @@
         <v>0.6704529313</v>
       </c>
       <c r="O308" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.3998017781</v>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M309" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N309" s="8">
@@ -9905,7 +9905,7 @@
         <v>0.6696078862</v>
       </c>
       <c r="O309" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4010629825</v>
       </c>
     </row>
@@ -9920,7 +9920,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M310" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N310" s="8">
@@ -9928,7 +9928,7 @@
         <v>0.6687639061</v>
       </c>
       <c r="O310" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4023241868</v>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M311" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N311" s="8">
@@ -9951,7 +9951,7 @@
         <v>0.6679209898</v>
       </c>
       <c r="O311" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4035853911</v>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M312" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N312" s="8">
@@ -9974,7 +9974,7 @@
         <v>0.667079136</v>
       </c>
       <c r="O312" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4048465955</v>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M313" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N313" s="8">
@@ -9997,7 +9997,7 @@
         <v>0.6662383432</v>
       </c>
       <c r="O313" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4061077998</v>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M314" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N314" s="8">
@@ -10020,7 +10020,7 @@
         <v>0.6653986101</v>
       </c>
       <c r="O314" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4073690042</v>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M315" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N315" s="8">
@@ -10043,7 +10043,7 @@
         <v>0.6645599355</v>
       </c>
       <c r="O315" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4086302085</v>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M316" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N316" s="8">
@@ -10066,7 +10066,7 @@
         <v>0.6637223179</v>
       </c>
       <c r="O316" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4098914129</v>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M317" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N317" s="8">
@@ -10089,7 +10089,7 @@
         <v>0.6628857561</v>
       </c>
       <c r="O317" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4111526172</v>
       </c>
     </row>
@@ -10104,7 +10104,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M318" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N318" s="8">
@@ -10112,7 +10112,7 @@
         <v>0.6620502487</v>
       </c>
       <c r="O318" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4124138216</v>
       </c>
     </row>
@@ -10127,7 +10127,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M319" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N319" s="8">
@@ -10135,7 +10135,7 @@
         <v>0.6612157943</v>
       </c>
       <c r="O319" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4136750259</v>
       </c>
     </row>
@@ -10150,7 +10150,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M320" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N320" s="8">
@@ -10158,7 +10158,7 @@
         <v>0.6603823918</v>
       </c>
       <c r="O320" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4149362303</v>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M321" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N321" s="8">
@@ -10181,7 +10181,7 @@
         <v>0.6595500396</v>
       </c>
       <c r="O321" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4161974346</v>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M322" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N322" s="8">
@@ -10204,7 +10204,7 @@
         <v>0.6587187366</v>
       </c>
       <c r="O322" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.417458639</v>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M323" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N323" s="8">
@@ -10227,7 +10227,7 @@
         <v>0.6578884813</v>
       </c>
       <c r="O323" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4187198433</v>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M324" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N324" s="8">
@@ -10250,7 +10250,7 @@
         <v>0.6570592725</v>
       </c>
       <c r="O324" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4199810477</v>
       </c>
     </row>
@@ -10265,7 +10265,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M325" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N325" s="8">
@@ -10273,7 +10273,7 @@
         <v>0.6562311088</v>
       </c>
       <c r="O325" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.421242252</v>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M326" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N326" s="8">
@@ -10296,7 +10296,7 @@
         <v>0.655403989</v>
       </c>
       <c r="O326" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4225034564</v>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M327" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N327" s="8">
@@ -10319,7 +10319,7 @@
         <v>0.6545779117</v>
       </c>
       <c r="O327" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4237646607</v>
       </c>
     </row>
@@ -10334,7 +10334,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M328" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N328" s="8">
@@ -10342,7 +10342,7 @@
         <v>0.6537528756</v>
       </c>
       <c r="O328" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4250258651</v>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M329" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N329" s="8">
@@ -10365,7 +10365,7 @@
         <v>0.6529288793</v>
       </c>
       <c r="O329" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4262870694</v>
       </c>
     </row>
@@ -10380,7 +10380,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M330" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N330" s="8">
@@ -10388,7 +10388,7 @@
         <v>0.6521059216</v>
       </c>
       <c r="O330" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4275482737</v>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M331" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N331" s="8">
@@ -10411,7 +10411,7 @@
         <v>0.6512840012</v>
       </c>
       <c r="O331" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4288094781</v>
       </c>
     </row>
@@ -10426,7 +10426,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M332" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N332" s="8">
@@ -10434,7 +10434,7 @@
         <v>0.6504631168</v>
       </c>
       <c r="O332" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4300706824</v>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M333" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N333" s="8">
@@ -10457,7 +10457,7 @@
         <v>0.649643267</v>
       </c>
       <c r="O333" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4313318868</v>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M334" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N334" s="8">
@@ -10480,7 +10480,7 @@
         <v>0.6488244505</v>
       </c>
       <c r="O334" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4325930911</v>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M335" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N335" s="8">
@@ -10503,7 +10503,7 @@
         <v>0.6480066661</v>
       </c>
       <c r="O335" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4338542955</v>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M336" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N336" s="8">
@@ -10526,7 +10526,7 @@
         <v>0.6471899124</v>
       </c>
       <c r="O336" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4351154998</v>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M337" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N337" s="8">
@@ -10549,7 +10549,7 @@
         <v>0.6463741882</v>
       </c>
       <c r="O337" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4363767042</v>
       </c>
     </row>
@@ -10564,7 +10564,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M338" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N338" s="8">
@@ -10572,7 +10572,7 @@
         <v>0.6455594921</v>
       </c>
       <c r="O338" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4376379085</v>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M339" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N339" s="8">
@@ -10595,7 +10595,7 @@
         <v>0.6447458229</v>
       </c>
       <c r="O339" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4388991129</v>
       </c>
     </row>
@@ -10610,7 +10610,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M340" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N340" s="8">
@@ -10618,7 +10618,7 @@
         <v>0.6439331792</v>
       </c>
       <c r="O340" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4401603172</v>
       </c>
     </row>
@@ -10633,7 +10633,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M341" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N341" s="8">
@@ -10641,7 +10641,7 @@
         <v>0.6431215598</v>
       </c>
       <c r="O341" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4414215216</v>
       </c>
     </row>
@@ -10656,7 +10656,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M342" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N342" s="8">
@@ -10664,7 +10664,7 @@
         <v>0.6423109634</v>
       </c>
       <c r="O342" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4426827259</v>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M343" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N343" s="8">
@@ -10687,7 +10687,7 @@
         <v>0.6415013886</v>
       </c>
       <c r="O343" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4439439303</v>
       </c>
     </row>
@@ -10702,7 +10702,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M344" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N344" s="8">
@@ -10710,7 +10710,7 @@
         <v>0.6406928343</v>
       </c>
       <c r="O344" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4452051346</v>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M345" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N345" s="8">
@@ -10733,7 +10733,7 @@
         <v>0.639885299</v>
       </c>
       <c r="O345" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.446466339</v>
       </c>
     </row>
@@ -10748,7 +10748,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M346" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N346" s="8">
@@ -10756,7 +10756,7 @@
         <v>0.6390787816</v>
       </c>
       <c r="O346" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4477275433</v>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M347" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N347" s="8">
@@ -10779,7 +10779,7 @@
         <v>0.6382732807</v>
       </c>
       <c r="O347" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4489887477</v>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M348" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N348" s="8">
@@ -10802,7 +10802,7 @@
         <v>0.6374687951</v>
       </c>
       <c r="O348" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.450249952</v>
       </c>
     </row>
@@ -10817,7 +10817,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M349" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N349" s="8">
@@ -10825,7 +10825,7 @@
         <v>0.6366653235</v>
       </c>
       <c r="O349" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4515111563</v>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M350" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N350" s="8">
@@ -10848,7 +10848,7 @@
         <v>0.6358628645</v>
       </c>
       <c r="O350" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.4527723607</v>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
         <v>0.01524955794</v>
       </c>
       <c r="M351" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.001262</v>
       </c>
       <c r="N351" s="8">
@@ -10874,7 +10874,7 @@
         <v>0.635061417</v>
       </c>
       <c r="O351" s="8">
-        <f t="shared" si="103"/>
+        <f t="shared" si="99"/>
         <v>-0.454033565</v>
       </c>
     </row>

--- a/bs_int/rates/quant_assessment_template.xlsx
+++ b/bs_int/rates/quant_assessment_template.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Treasury Example (with Math)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="sheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hUFFOXWFsyfPmUQYXHR06ccqnPbpBhNs3NWv3BtWhdk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="A80cp+IgUcCWxmt1pIYQwQHo/b7x3irTJxGNM5atHoo="/>
     </ext>
   </extLst>
 </workbook>
@@ -330,292 +330,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Par and Zero</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Treasury Example (with Math)'!$K$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4472C4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Treasury Example (with Math)'!$J$3:$J$351</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Treasury Example (with Math)'!$K$3:$K$351</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Treasury Example (with Math)'!$L$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Treasury Example (with Math)'!$J$3:$J$351</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Treasury Example (with Math)'!$L$3:$L$351</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="2145509291"/>
-        <c:axId val="624031800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2145509291"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="624031800"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="624031800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2145509291"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5010150" cy="2695575"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1687990111" name="Chart 1" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
